--- a/data/negative_signals/Indirectly connected (A-X-B) - Isosorbide mononitrate - Neutropenia.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Isosorbide mononitrate - Neutropenia.xlsx
@@ -173,109 +173,499 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>2617463</t>
+  </si>
+  <si>
+    <t>neutropenia</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>58878956</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>55071422</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>52012320</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>82750</t>
+  </si>
+  <si>
+    <t>adriamycin</t>
+  </si>
+  <si>
+    <t>130351930</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>15473334</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>97365188</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
     <t>4027653</t>
   </si>
   <si>
     <t>patients</t>
   </si>
   <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>2617463</t>
-  </si>
-  <si>
-    <t>neutropenia</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>118793595</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>119281712</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>118031156</t>
+    <t>53015014</t>
+  </si>
+  <si>
+    <t>52531687</t>
+  </si>
+  <si>
+    <t>88834538</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>51690308</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>66891791</t>
+  </si>
+  <si>
+    <t>does not occur in</t>
+  </si>
+  <si>
+    <t>51812482</t>
   </si>
   <si>
     <t>affects</t>
   </si>
   <si>
-    <t>117901141</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>133287485</t>
-  </si>
-  <si>
-    <t>does not occur in</t>
-  </si>
-  <si>
-    <t>117457628</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>155032942</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>118036963</t>
+    <t>51265582</t>
+  </si>
+  <si>
+    <t>51824039</t>
   </si>
   <si>
     <t>occurs in</t>
   </si>
   <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>125318107</t>
-  </si>
-  <si>
-    <t>121494645</t>
-  </si>
-  <si>
-    <t>118243858</t>
-  </si>
-  <si>
-    <t>82750</t>
-  </si>
-  <si>
-    <t>adriamycin</t>
-  </si>
-  <si>
-    <t>196505345</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>163562304</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>81680554</t>
-  </si>
-  <si>
-    <t>indicates</t>
+    <t>3737354</t>
+  </si>
+  <si>
+    <t>prophylactic treatment</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>78894164</t>
+  </si>
+  <si>
+    <t>does not use</t>
+  </si>
+  <si>
+    <t>82667872</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>60604477</t>
+  </si>
+  <si>
+    <t>51775837</t>
+  </si>
+  <si>
+    <t>119413391</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>55197734</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>55046332</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>87544176</t>
+  </si>
+  <si>
+    <t>103854712</t>
+  </si>
+  <si>
+    <t>55000515</t>
+  </si>
+  <si>
+    <t>51482599</t>
+  </si>
+  <si>
+    <t>760841</t>
+  </si>
+  <si>
+    <t>domestic rabbit</t>
+  </si>
+  <si>
+    <t>91916454</t>
+  </si>
+  <si>
+    <t>51995217</t>
+  </si>
+  <si>
+    <t>60548040</t>
+  </si>
+  <si>
+    <t>603590</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>66054566</t>
+  </si>
+  <si>
+    <t>13254002</t>
+  </si>
+  <si>
+    <t>118891170</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>104773537</t>
+  </si>
+  <si>
+    <t>does not prevent</t>
+  </si>
+  <si>
+    <t>13257288</t>
+  </si>
+  <si>
+    <t>106560640</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>53298657</t>
+  </si>
+  <si>
+    <t>4048474</t>
+  </si>
+  <si>
+    <t>hemorrhage</t>
+  </si>
+  <si>
+    <t>116311087</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>106807059</t>
+  </si>
+  <si>
+    <t>does not inhibit</t>
+  </si>
+  <si>
+    <t>13257250</t>
+  </si>
+  <si>
+    <t>114025367</t>
+  </si>
+  <si>
+    <t>71866692</t>
+  </si>
+  <si>
+    <t>119521873</t>
+  </si>
+  <si>
+    <t>3763552</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>76434456</t>
+  </si>
+  <si>
+    <t>52104898</t>
+  </si>
+  <si>
+    <t>2518307</t>
+  </si>
+  <si>
+    <t>girls</t>
+  </si>
+  <si>
+    <t>52499912</t>
+  </si>
+  <si>
+    <t>51607992</t>
+  </si>
+  <si>
+    <t>445573</t>
+  </si>
+  <si>
+    <t>cyclosporine</t>
+  </si>
+  <si>
+    <t>91612390</t>
+  </si>
+  <si>
+    <t>59791346</t>
+  </si>
+  <si>
+    <t>14601104</t>
+  </si>
+  <si>
+    <t>3170803</t>
+  </si>
+  <si>
+    <t>abdominal pain</t>
+  </si>
+  <si>
+    <t>13253221</t>
+  </si>
+  <si>
+    <t>57045875</t>
+  </si>
+  <si>
+    <t>617264</t>
+  </si>
+  <si>
+    <t>diarrhea</t>
+  </si>
+  <si>
+    <t>13253707</t>
+  </si>
+  <si>
+    <t>113759988</t>
+  </si>
+  <si>
+    <t>65478868</t>
+  </si>
+  <si>
+    <t>52850265</t>
+  </si>
+  <si>
+    <t>58378654</t>
+  </si>
+  <si>
+    <t>4950808</t>
+  </si>
+  <si>
+    <t>allopurinol</t>
+  </si>
+  <si>
+    <t>125347369</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>13310388</t>
+  </si>
+  <si>
+    <t>4048530</t>
+  </si>
+  <si>
+    <t>hypotension</t>
+  </si>
+  <si>
+    <t>13257433</t>
+  </si>
+  <si>
+    <t>119520841</t>
+  </si>
+  <si>
+    <t>40115474</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>53460811</t>
+  </si>
+  <si>
+    <t>4034755</t>
+  </si>
+  <si>
+    <t>hydrocortisone</t>
+  </si>
+  <si>
+    <t>123245278</t>
+  </si>
+  <si>
+    <t>12786596</t>
+  </si>
+  <si>
+    <t>3116817</t>
+  </si>
+  <si>
+    <t>bradycardia</t>
+  </si>
+  <si>
+    <t>13253674</t>
+  </si>
+  <si>
+    <t>108885758</t>
+  </si>
+  <si>
+    <t>237928</t>
+  </si>
+  <si>
+    <t>control groups</t>
+  </si>
+  <si>
+    <t>89192872</t>
+  </si>
+  <si>
+    <t>51573790</t>
+  </si>
+  <si>
+    <t>220950</t>
+  </si>
+  <si>
+    <t>kidney failure, acute</t>
+  </si>
+  <si>
+    <t>13253346</t>
+  </si>
+  <si>
+    <t>62488157</t>
+  </si>
+  <si>
+    <t>133368</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>66346731</t>
+  </si>
+  <si>
+    <t>58032294</t>
+  </si>
+  <si>
+    <t>447781</t>
+  </si>
+  <si>
+    <t>fibrosis</t>
+  </si>
+  <si>
+    <t>75207304</t>
+  </si>
+  <si>
+    <t>58345735</t>
+  </si>
+  <si>
+    <t>124886484</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>94877592</t>
+  </si>
+  <si>
+    <t>98283201</t>
+  </si>
+  <si>
+    <t>72388267</t>
+  </si>
+  <si>
+    <t>56373081</t>
+  </si>
+  <si>
+    <t>484171</t>
+  </si>
+  <si>
+    <t>outpatients</t>
+  </si>
+  <si>
+    <t>87410564</t>
+  </si>
+  <si>
+    <t>67785193</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>66954308</t>
+  </si>
+  <si>
+    <t>96038728</t>
+  </si>
+  <si>
+    <t>58723074</t>
+  </si>
+  <si>
+    <t>2406105</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>99865903</t>
+  </si>
+  <si>
+    <t>121661605</t>
+  </si>
+  <si>
+    <t>63043018</t>
   </si>
   <si>
     <t>5648228</t>
@@ -284,325 +674,1201 @@
     <t>therapeutic procedure</t>
   </si>
   <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>122653854</t>
+    <t>66830291</t>
+  </si>
+  <si>
+    <t>is lower than</t>
+  </si>
+  <si>
+    <t>53428173</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>124500329</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>59780038</t>
   </si>
   <si>
     <t>is a</t>
   </si>
   <si>
-    <t>133284932</t>
-  </si>
-  <si>
-    <t>is lower than</t>
-  </si>
-  <si>
-    <t>190706431</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>119691310</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>120320602</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>154281003</t>
+    <t>53969792</t>
+  </si>
+  <si>
+    <t>51917388</t>
+  </si>
+  <si>
+    <t>88239420</t>
+  </si>
+  <si>
+    <t>74019355</t>
+  </si>
+  <si>
+    <t>124039662</t>
+  </si>
+  <si>
+    <t>55250996</t>
+  </si>
+  <si>
+    <t>88073728</t>
   </si>
   <si>
     <t>complicates</t>
   </si>
   <si>
-    <t>140400322</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>121636341</t>
-  </si>
-  <si>
-    <t>129167912</t>
+    <t>95958340</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>52406784</t>
+  </si>
+  <si>
+    <t>51505871</t>
+  </si>
+  <si>
+    <t>62705326</t>
   </si>
   <si>
     <t>does not treat</t>
   </si>
   <si>
-    <t>118681684</t>
-  </si>
-  <si>
-    <t>154515314</t>
-  </si>
-  <si>
-    <t>does not prevent</t>
-  </si>
-  <si>
-    <t>117722842</t>
-  </si>
-  <si>
-    <t>121768514</t>
-  </si>
-  <si>
-    <t>162160075</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>118125235</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>190174881</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>79531815</t>
-  </si>
-  <si>
-    <t>170987558</t>
-  </si>
-  <si>
-    <t>172772272</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>119597542</t>
-  </si>
-  <si>
-    <t>3763552</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>142779492</t>
-  </si>
-  <si>
-    <t>118346469</t>
-  </si>
-  <si>
-    <t>2518307</t>
-  </si>
-  <si>
-    <t>girls</t>
-  </si>
-  <si>
-    <t>118731941</t>
-  </si>
-  <si>
-    <t>117836908</t>
-  </si>
-  <si>
-    <t>445573</t>
-  </si>
-  <si>
-    <t>cyclosporine</t>
-  </si>
-  <si>
-    <t>157803209</t>
-  </si>
-  <si>
-    <t>126217069</t>
-  </si>
-  <si>
-    <t>80824859</t>
-  </si>
-  <si>
-    <t>3170803</t>
-  </si>
-  <si>
-    <t>abdominal pain</t>
-  </si>
-  <si>
-    <t>79529072</t>
-  </si>
-  <si>
-    <t>123485378</t>
-  </si>
-  <si>
-    <t>617264</t>
-  </si>
-  <si>
-    <t>diarrhea</t>
-  </si>
-  <si>
-    <t>79529335</t>
-  </si>
-  <si>
-    <t>119148897</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>179961559</t>
-  </si>
-  <si>
-    <t>124867323</t>
-  </si>
-  <si>
-    <t>131954507</t>
-  </si>
-  <si>
-    <t>4950808</t>
-  </si>
-  <si>
-    <t>allopurinol</t>
-  </si>
-  <si>
-    <t>191536583</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>79611892</t>
-  </si>
-  <si>
-    <t>4048530</t>
-  </si>
-  <si>
-    <t>hypotension</t>
-  </si>
-  <si>
-    <t>79531906</t>
-  </si>
-  <si>
-    <t>185737680</t>
-  </si>
-  <si>
-    <t>106302650</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>119840585</t>
-  </si>
-  <si>
-    <t>4034755</t>
-  </si>
-  <si>
-    <t>hydrocortisone</t>
-  </si>
-  <si>
-    <t>189435308</t>
-  </si>
-  <si>
-    <t>79146449</t>
-  </si>
-  <si>
-    <t>3116817</t>
-  </si>
-  <si>
-    <t>bradycardia</t>
-  </si>
-  <si>
-    <t>79529313</t>
-  </si>
-  <si>
-    <t>175115910</t>
-  </si>
-  <si>
-    <t>237928</t>
-  </si>
-  <si>
-    <t>control groups</t>
-  </si>
-  <si>
-    <t>155464281</t>
-  </si>
-  <si>
-    <t>117801888</t>
-  </si>
-  <si>
-    <t>220950</t>
-  </si>
-  <si>
-    <t>kidney failure, acute</t>
-  </si>
-  <si>
-    <t>79529131</t>
-  </si>
-  <si>
-    <t>128949435</t>
-  </si>
-  <si>
-    <t>133368</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>132690459</t>
-  </si>
-  <si>
-    <t>120675054</t>
-  </si>
-  <si>
-    <t>3737354</t>
-  </si>
-  <si>
-    <t>prophylactic treatment</t>
-  </si>
-  <si>
-    <t>145261465</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>149048033</t>
-  </si>
-  <si>
-    <t>121664626</t>
-  </si>
-  <si>
-    <t>127063372</t>
-  </si>
-  <si>
-    <t>118015388</t>
-  </si>
-  <si>
-    <t>185606147</t>
-  </si>
-  <si>
-    <t>121412265</t>
-  </si>
-  <si>
-    <t>447781</t>
-  </si>
-  <si>
-    <t>fibrosis</t>
-  </si>
-  <si>
-    <t>141684543</t>
-  </si>
-  <si>
-    <t>191094783</t>
-  </si>
-  <si>
-    <t>124730171</t>
+    <t>55372057</t>
+  </si>
+  <si>
+    <t>281347</t>
+  </si>
+  <si>
+    <t>long-term care</t>
+  </si>
+  <si>
+    <t>63804721</t>
+  </si>
+  <si>
+    <t>99783196</t>
+  </si>
+  <si>
+    <t>111132154</t>
+  </si>
+  <si>
+    <t>4040981</t>
+  </si>
+  <si>
+    <t>pharmacotherapy</t>
+  </si>
+  <si>
+    <t>107335974</t>
+  </si>
+  <si>
+    <t>107273998</t>
+  </si>
+  <si>
+    <t>51689709</t>
+  </si>
+  <si>
+    <t>58867585</t>
+  </si>
+  <si>
+    <t>60058528</t>
+  </si>
+  <si>
+    <t>55400138</t>
+  </si>
+  <si>
+    <t>51507503</t>
+  </si>
+  <si>
+    <t>2511284</t>
+  </si>
+  <si>
+    <t>induction procedure</t>
+  </si>
+  <si>
+    <t>79363233</t>
+  </si>
+  <si>
+    <t>91199793</t>
+  </si>
+  <si>
+    <t>131364</t>
+  </si>
+  <si>
+    <t>schistosomiasis</t>
+  </si>
+  <si>
+    <t>71453271</t>
+  </si>
+  <si>
+    <t>40238113</t>
+  </si>
+  <si>
+    <t>836626</t>
+  </si>
+  <si>
+    <t>sodium chloride</t>
+  </si>
+  <si>
+    <t>76087636</t>
+  </si>
+  <si>
+    <t>61162751</t>
+  </si>
+  <si>
+    <t>701874</t>
+  </si>
+  <si>
+    <t>pregnant women</t>
+  </si>
+  <si>
+    <t>72443774</t>
+  </si>
+  <si>
+    <t>69128948</t>
+  </si>
+  <si>
+    <t>73290201</t>
+  </si>
+  <si>
+    <t>4049113</t>
+  </si>
+  <si>
+    <t>ischemia</t>
+  </si>
+  <si>
+    <t>63930027</t>
+  </si>
+  <si>
+    <t>133121435</t>
+  </si>
+  <si>
+    <t>4048979</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>68033755</t>
+  </si>
+  <si>
+    <t>76717180</t>
+  </si>
+  <si>
+    <t>51369214</t>
+  </si>
+  <si>
+    <t>4028398</t>
+  </si>
+  <si>
+    <t>placebos</t>
+  </si>
+  <si>
+    <t>91690986</t>
+  </si>
+  <si>
+    <t>91213436</t>
+  </si>
+  <si>
+    <t>120388079</t>
+  </si>
+  <si>
+    <t>58234924</t>
+  </si>
+  <si>
+    <t>109014808</t>
+  </si>
+  <si>
+    <t>54785424</t>
+  </si>
+  <si>
+    <t>83704256</t>
+  </si>
+  <si>
+    <t>62486651</t>
+  </si>
+  <si>
+    <t>3815757</t>
+  </si>
+  <si>
+    <t>treatment protocols</t>
+  </si>
+  <si>
+    <t>94598917</t>
+  </si>
+  <si>
+    <t>95299129</t>
+  </si>
+  <si>
+    <t>60920152</t>
+  </si>
+  <si>
+    <t>55028967</t>
+  </si>
+  <si>
+    <t>61570548</t>
+  </si>
+  <si>
+    <t>99370617</t>
+  </si>
+  <si>
+    <t>79522576</t>
+  </si>
+  <si>
+    <t>92495443</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>51918795</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>130831103</t>
+  </si>
+  <si>
+    <t>51546462</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>61532080</t>
+  </si>
+  <si>
+    <t>67731612</t>
+  </si>
+  <si>
+    <t>51631798</t>
+  </si>
+  <si>
+    <t>97206353</t>
+  </si>
+  <si>
+    <t>5127800</t>
+  </si>
+  <si>
+    <t>psychotherapy, multiple</t>
+  </si>
+  <si>
+    <t>99106002</t>
+  </si>
+  <si>
+    <t>123321582</t>
+  </si>
+  <si>
+    <t>2506281</t>
+  </si>
+  <si>
+    <t>adverse effects</t>
+  </si>
+  <si>
+    <t>88167913</t>
+  </si>
+  <si>
+    <t>103574402</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>119860754</t>
+  </si>
+  <si>
+    <t>61808333</t>
+  </si>
+  <si>
+    <t>101604983</t>
+  </si>
+  <si>
+    <t>59976944</t>
+  </si>
+  <si>
+    <t>65475306</t>
+  </si>
+  <si>
+    <t>79382422</t>
+  </si>
+  <si>
+    <t>84764</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>53750681</t>
+  </si>
+  <si>
+    <t>does not disrupt</t>
+  </si>
+  <si>
+    <t>55505770</t>
+  </si>
+  <si>
+    <t>90747194</t>
+  </si>
+  <si>
+    <t>6107559</t>
+  </si>
+  <si>
+    <t>application procedure</t>
+  </si>
+  <si>
+    <t>123426411</t>
+  </si>
+  <si>
+    <t>79798304</t>
+  </si>
+  <si>
+    <t>106834744</t>
+  </si>
+  <si>
+    <t>53343535</t>
+  </si>
+  <si>
+    <t>544027</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>96684872</t>
+  </si>
+  <si>
+    <t>90867618</t>
+  </si>
+  <si>
+    <t>478055</t>
+  </si>
+  <si>
+    <t>ambulatory care services</t>
+  </si>
+  <si>
+    <t>125649414</t>
+  </si>
+  <si>
+    <t>84152596</t>
+  </si>
+  <si>
+    <t>476523</t>
+  </si>
+  <si>
+    <t>cardiovascular diseases</t>
+  </si>
+  <si>
+    <t>105574336</t>
+  </si>
+  <si>
+    <t>106610389</t>
+  </si>
+  <si>
+    <t>4041859</t>
+  </si>
+  <si>
+    <t>blood circulation</t>
+  </si>
+  <si>
+    <t>60897759</t>
+  </si>
+  <si>
+    <t>97549469</t>
+  </si>
+  <si>
+    <t>123203862</t>
+  </si>
+  <si>
+    <t>4040861</t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>90295563</t>
+  </si>
+  <si>
+    <t>68445297</t>
+  </si>
+  <si>
+    <t>64954442</t>
+  </si>
+  <si>
+    <t>116014395</t>
+  </si>
+  <si>
+    <t>does not coexist with</t>
+  </si>
+  <si>
+    <t>68701959</t>
+  </si>
+  <si>
+    <t>67870611</t>
+  </si>
+  <si>
+    <t>55442187</t>
+  </si>
+  <si>
+    <t>71866738</t>
+  </si>
+  <si>
+    <t>3769667</t>
+  </si>
+  <si>
+    <t>blood flow</t>
+  </si>
+  <si>
+    <t>70951236</t>
+  </si>
+  <si>
+    <t>59394191</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>51301444</t>
+  </si>
+  <si>
+    <t>54028404</t>
+  </si>
+  <si>
+    <t>3763784</t>
+  </si>
+  <si>
+    <t>recovery - action</t>
+  </si>
+  <si>
+    <t>Activities &amp; Behaviors</t>
+  </si>
+  <si>
+    <t>109017619</t>
+  </si>
+  <si>
+    <t>70046979</t>
+  </si>
+  <si>
+    <t>77439793</t>
+  </si>
+  <si>
+    <t>2899046</t>
+  </si>
+  <si>
+    <t>areae</t>
+  </si>
+  <si>
+    <t>59091114</t>
+  </si>
+  <si>
+    <t>68942802</t>
+  </si>
+  <si>
+    <t>2822765</t>
+  </si>
+  <si>
+    <t>kidney failure</t>
+  </si>
+  <si>
+    <t>70850930</t>
+  </si>
+  <si>
+    <t>40276512</t>
+  </si>
+  <si>
+    <t>79382333</t>
+  </si>
+  <si>
+    <t>73375791</t>
+  </si>
+  <si>
+    <t>2612598</t>
+  </si>
+  <si>
+    <t>endothelial dysfunction</t>
+  </si>
+  <si>
+    <t>107911564</t>
+  </si>
+  <si>
+    <t>114339983</t>
+  </si>
+  <si>
+    <t>80344779</t>
+  </si>
+  <si>
+    <t>122947</t>
+  </si>
+  <si>
+    <t>erythropoiesis</t>
+  </si>
+  <si>
+    <t>73023285</t>
+  </si>
+  <si>
+    <t>61838591</t>
+  </si>
+  <si>
+    <t>643114</t>
+  </si>
+  <si>
+    <t>aspirin</t>
+  </si>
+  <si>
+    <t>90295546</t>
+  </si>
+  <si>
+    <t>105796328</t>
+  </si>
+  <si>
+    <t>89559603</t>
+  </si>
+  <si>
+    <t>55458961</t>
+  </si>
+  <si>
+    <t>109056308</t>
+  </si>
+  <si>
+    <t>does not predispose</t>
+  </si>
+  <si>
+    <t>65137880</t>
+  </si>
+  <si>
+    <t>621064</t>
+  </si>
+  <si>
+    <t>reactive oxygen species</t>
+  </si>
+  <si>
+    <t>98740130</t>
+  </si>
+  <si>
+    <t>71114429</t>
+  </si>
+  <si>
+    <t>produces</t>
+  </si>
+  <si>
+    <t>614774</t>
+  </si>
+  <si>
+    <t>nitric oxide</t>
+  </si>
+  <si>
+    <t>85495751</t>
+  </si>
+  <si>
+    <t>57886252</t>
+  </si>
+  <si>
+    <t>59666888</t>
+  </si>
+  <si>
+    <t>5806848</t>
+  </si>
+  <si>
+    <t>coronary occlusion</t>
+  </si>
+  <si>
+    <t>61000451</t>
+  </si>
+  <si>
+    <t>74933532</t>
+  </si>
+  <si>
+    <t>5699144</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>122373935</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>96043914</t>
+  </si>
+  <si>
+    <t>73477470</t>
+  </si>
+  <si>
+    <t>5699005</t>
+  </si>
+  <si>
+    <t>falls</t>
+  </si>
+  <si>
+    <t>53428756</t>
+  </si>
+  <si>
+    <t>66484733</t>
+  </si>
+  <si>
+    <t>5648475</t>
+  </si>
+  <si>
+    <t>vasodilation</t>
+  </si>
+  <si>
+    <t>127595782</t>
+  </si>
+  <si>
+    <t>116470924</t>
+  </si>
+  <si>
+    <t>70189671</t>
+  </si>
+  <si>
+    <t>65906582</t>
+  </si>
+  <si>
+    <t>524085</t>
+  </si>
+  <si>
+    <t>epoprostenol</t>
+  </si>
+  <si>
+    <t>53804439</t>
+  </si>
+  <si>
+    <t>53806091</t>
+  </si>
+  <si>
+    <t>83545939</t>
+  </si>
+  <si>
+    <t>61775797</t>
+  </si>
+  <si>
+    <t>65567400</t>
+  </si>
+  <si>
+    <t>75848860</t>
+  </si>
+  <si>
+    <t>52298810</t>
+  </si>
+  <si>
+    <t>5127262</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>64257803</t>
+  </si>
+  <si>
+    <t>116785150</t>
+  </si>
+  <si>
+    <t>120036183</t>
+  </si>
+  <si>
+    <t>is not associated with</t>
+  </si>
+  <si>
+    <t>5028471</t>
+  </si>
+  <si>
+    <t>biopsy</t>
+  </si>
+  <si>
+    <t>74472074</t>
+  </si>
+  <si>
+    <t>93690237</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>444837</t>
+  </si>
+  <si>
+    <t>alkaline phosphatase</t>
+  </si>
+  <si>
+    <t>103390964</t>
+  </si>
+  <si>
+    <t>122976073</t>
+  </si>
+  <si>
+    <t>68378552</t>
+  </si>
+  <si>
+    <t>4049133</t>
+  </si>
+  <si>
+    <t>hyperplasia</t>
+  </si>
+  <si>
+    <t>123814646</t>
+  </si>
+  <si>
+    <t>82943253</t>
+  </si>
+  <si>
+    <t>4047603</t>
+  </si>
+  <si>
+    <t>pulmonary hypertension</t>
+  </si>
+  <si>
+    <t>57224708</t>
+  </si>
+  <si>
+    <t>85403086</t>
+  </si>
+  <si>
+    <t>71211781</t>
+  </si>
+  <si>
+    <t>4041249</t>
+  </si>
+  <si>
+    <t>colon structure (body structure)</t>
+  </si>
+  <si>
+    <t>60969983</t>
+  </si>
+  <si>
+    <t>is not location of</t>
+  </si>
+  <si>
+    <t>95534070</t>
+  </si>
+  <si>
+    <t>4035388</t>
+  </si>
+  <si>
+    <t>fasting</t>
+  </si>
+  <si>
+    <t>123582842</t>
+  </si>
+  <si>
+    <t>54139512</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>83957808</t>
+  </si>
+  <si>
+    <t>76941658</t>
+  </si>
+  <si>
+    <t>53477912</t>
+  </si>
+  <si>
+    <t>76825429</t>
+  </si>
+  <si>
+    <t>67731752</t>
+  </si>
+  <si>
+    <t>113575589</t>
+  </si>
+  <si>
+    <t>81727826</t>
+  </si>
+  <si>
+    <t>60867448</t>
+  </si>
+  <si>
+    <t>65092324</t>
+  </si>
+  <si>
+    <t>60831442</t>
+  </si>
+  <si>
+    <t>75581618</t>
+  </si>
+  <si>
+    <t>55398107</t>
+  </si>
+  <si>
+    <t>53486298</t>
+  </si>
+  <si>
+    <t>110917376</t>
+  </si>
+  <si>
+    <t>106533255</t>
+  </si>
+  <si>
+    <t>52674209</t>
+  </si>
+  <si>
+    <t>4028545</t>
+  </si>
+  <si>
+    <t>ligation</t>
+  </si>
+  <si>
+    <t>113567604</t>
+  </si>
+  <si>
+    <t>104506905</t>
+  </si>
+  <si>
+    <t>82561983</t>
+  </si>
+  <si>
+    <t>104514485</t>
+  </si>
+  <si>
+    <t>104514276</t>
+  </si>
+  <si>
+    <t>133264520</t>
+  </si>
+  <si>
+    <t>133469421</t>
+  </si>
+  <si>
+    <t>3815670</t>
+  </si>
+  <si>
+    <t>transplantation</t>
+  </si>
+  <si>
+    <t>68523462</t>
+  </si>
+  <si>
+    <t>86504427</t>
+  </si>
+  <si>
+    <t>58175197</t>
+  </si>
+  <si>
+    <t>75794613</t>
+  </si>
+  <si>
+    <t>3779305</t>
+  </si>
+  <si>
+    <t>consumption-archaic term for tb</t>
+  </si>
+  <si>
+    <t>89112457</t>
+  </si>
+  <si>
+    <t>63562686</t>
+  </si>
+  <si>
+    <t>73297091</t>
+  </si>
+  <si>
+    <t>105998775</t>
+  </si>
+  <si>
+    <t>3778105</t>
+  </si>
+  <si>
+    <t>renal function</t>
+  </si>
+  <si>
+    <t>73730617</t>
+  </si>
+  <si>
+    <t>69697408</t>
+  </si>
+  <si>
+    <t>113307773</t>
+  </si>
+  <si>
+    <t>75581426</t>
+  </si>
+  <si>
+    <t>3767500</t>
+  </si>
+  <si>
+    <t>chronic failure</t>
+  </si>
+  <si>
+    <t>59965800</t>
+  </si>
+  <si>
+    <t>76955497</t>
+  </si>
+  <si>
+    <t>331275</t>
+  </si>
+  <si>
+    <t>rats, wistar</t>
+  </si>
+  <si>
+    <t>114340046</t>
+  </si>
+  <si>
+    <t>131976973</t>
+  </si>
+  <si>
+    <t>320774</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>99571396</t>
+  </si>
+  <si>
+    <t>105022954</t>
+  </si>
+  <si>
+    <t>3202301</t>
+  </si>
+  <si>
+    <t>systemic arterial pressure</t>
+  </si>
+  <si>
+    <t>86811410</t>
+  </si>
+  <si>
+    <t>55067595</t>
+  </si>
+  <si>
+    <t>61532455</t>
+  </si>
+  <si>
+    <t>77976004</t>
+  </si>
+  <si>
+    <t>107428391</t>
+  </si>
+  <si>
+    <t>3131611</t>
+  </si>
+  <si>
+    <t>observation parameter</t>
+  </si>
+  <si>
+    <t>82507507</t>
+  </si>
+  <si>
+    <t>95367763</t>
+  </si>
+  <si>
+    <t>76020589</t>
+  </si>
+  <si>
+    <t>55009694</t>
+  </si>
+  <si>
+    <t>56275734</t>
+  </si>
+  <si>
+    <t>67033479</t>
+  </si>
+  <si>
+    <t>84875596</t>
+  </si>
+  <si>
+    <t>3117088</t>
+  </si>
+  <si>
+    <t>mean blood pressure</t>
+  </si>
+  <si>
+    <t>114154312</t>
+  </si>
+  <si>
+    <t>107399293</t>
+  </si>
+  <si>
+    <t>60161645</t>
+  </si>
+  <si>
+    <t>3017197</t>
+  </si>
+  <si>
+    <t>ercc8 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>94651821</t>
+  </si>
+  <si>
+    <t>84027590</t>
+  </si>
+  <si>
+    <t>101921072</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>72530195</t>
+  </si>
+  <si>
+    <t>59544087</t>
+  </si>
+  <si>
+    <t>54191904</t>
+  </si>
+  <si>
+    <t>115399020</t>
+  </si>
+  <si>
+    <t>54055480</t>
+  </si>
+  <si>
+    <t>54191997</t>
+  </si>
+  <si>
+    <t>2863639</t>
+  </si>
+  <si>
+    <t>peripheral blood mononuclear cell (cell)</t>
+  </si>
+  <si>
+    <t>125248089</t>
+  </si>
+  <si>
+    <t>111929259</t>
+  </si>
+  <si>
+    <t>279948</t>
+  </si>
+  <si>
+    <t>diltiazem</t>
+  </si>
+  <si>
+    <t>66538303</t>
+  </si>
+  <si>
+    <t>66538841</t>
+  </si>
+  <si>
+    <t>87848626</t>
+  </si>
+  <si>
+    <t>97678073</t>
+  </si>
+  <si>
+    <t>2635842</t>
+  </si>
+  <si>
+    <t>congener</t>
+  </si>
+  <si>
+    <t>96578313</t>
+  </si>
+  <si>
+    <t>64568303</t>
+  </si>
+  <si>
+    <t>2464005</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>Concepts &amp; Ideas</t>
+  </si>
+  <si>
+    <t>63423829</t>
+  </si>
+  <si>
+    <t>111935702</t>
+  </si>
+  <si>
+    <t>123798889</t>
+  </si>
+  <si>
+    <t>2441516</t>
+  </si>
+  <si>
+    <t>cardiac patient</t>
+  </si>
+  <si>
+    <t>73474284</t>
+  </si>
+  <si>
+    <t>82196912</t>
+  </si>
+  <si>
+    <t>2434669</t>
+  </si>
+  <si>
+    <t>nitrate</t>
+  </si>
+  <si>
+    <t>66622553</t>
+  </si>
+  <si>
+    <t>68211757</t>
+  </si>
+  <si>
+    <t>58714594</t>
+  </si>
+  <si>
+    <t>58034400</t>
+  </si>
+  <si>
+    <t>119772218</t>
+  </si>
+  <si>
+    <t>converts to</t>
+  </si>
+  <si>
+    <t>68222955</t>
+  </si>
+  <si>
+    <t>99275190</t>
+  </si>
+  <si>
+    <t>2406591</t>
+  </si>
+  <si>
+    <t>infusion procedures</t>
+  </si>
+  <si>
+    <t>103003752</t>
+  </si>
+  <si>
+    <t>71981934</t>
+  </si>
+  <si>
+    <t>112115666</t>
+  </si>
+  <si>
+    <t>90405916</t>
+  </si>
+  <si>
+    <t>52079491</t>
   </si>
   <si>
     <t>123856</t>
@@ -611,295 +1877,22 @@
     <t>platelet activating factor</t>
   </si>
   <si>
-    <t>127619310</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>128542960</t>
-  </si>
-  <si>
-    <t>118196265</t>
-  </si>
-  <si>
-    <t>135324346</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>128544122</t>
-  </si>
-  <si>
-    <t>produces</t>
-  </si>
-  <si>
-    <t>124163840</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>161059446</t>
-  </si>
-  <si>
-    <t>138788151</t>
-  </si>
-  <si>
-    <t>118810170</t>
-  </si>
-  <si>
-    <t>164491499</t>
-  </si>
-  <si>
-    <t>484171</t>
-  </si>
-  <si>
-    <t>outpatients</t>
-  </si>
-  <si>
-    <t>153709615</t>
-  </si>
-  <si>
-    <t>134112535</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>133290631</t>
-  </si>
-  <si>
-    <t>121448440</t>
-  </si>
-  <si>
-    <t>162269334</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>170072339</t>
-  </si>
-  <si>
-    <t>153796475</t>
-  </si>
-  <si>
-    <t>121479994</t>
-  </si>
-  <si>
-    <t>117693343</t>
-  </si>
-  <si>
-    <t>2406105</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>166099805</t>
-  </si>
-  <si>
-    <t>129450143</t>
-  </si>
-  <si>
-    <t>187806798</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>124564071</t>
-  </si>
-  <si>
-    <t>134120716</t>
-  </si>
-  <si>
-    <t>117836109</t>
-  </si>
-  <si>
-    <t>163412828</t>
-  </si>
-  <si>
-    <t>603590</t>
-  </si>
-  <si>
-    <t>headache</t>
-  </si>
-  <si>
-    <t>132450078</t>
-  </si>
-  <si>
-    <t>79529562</t>
-  </si>
-  <si>
-    <t>185106220</t>
-  </si>
-  <si>
-    <t>4040981</t>
-  </si>
-  <si>
-    <t>pharmacotherapy</t>
-  </si>
-  <si>
-    <t>173445536</t>
-  </si>
-  <si>
-    <t>173469732</t>
-  </si>
-  <si>
-    <t>121825210</t>
-  </si>
-  <si>
-    <t>125306733</t>
-  </si>
-  <si>
-    <t>117900606</t>
-  </si>
-  <si>
-    <t>117724317</t>
-  </si>
-  <si>
-    <t>126453840</t>
-  </si>
-  <si>
-    <t>3815670</t>
-  </si>
-  <si>
-    <t>transplantation</t>
-  </si>
-  <si>
-    <t>134882593</t>
-  </si>
-  <si>
-    <t>124544224</t>
-  </si>
-  <si>
-    <t>142258064</t>
-  </si>
-  <si>
-    <t>152902566</t>
-  </si>
-  <si>
-    <t>281347</t>
-  </si>
-  <si>
-    <t>long-term care</t>
-  </si>
-  <si>
-    <t>128909894</t>
-  </si>
-  <si>
-    <t>165984359</t>
-  </si>
-  <si>
-    <t>177342520</t>
-  </si>
-  <si>
-    <t>4028398</t>
-  </si>
-  <si>
-    <t>placebos</t>
-  </si>
-  <si>
-    <t>157981852</t>
-  </si>
-  <si>
-    <t>120907210</t>
-  </si>
-  <si>
-    <t>175135859</t>
-  </si>
-  <si>
-    <t>157402366</t>
-  </si>
-  <si>
-    <t>186582601</t>
-  </si>
-  <si>
-    <t>121243512</t>
-  </si>
-  <si>
-    <t>150080544</t>
-  </si>
-  <si>
-    <t>128865379</t>
-  </si>
-  <si>
-    <t>2511284</t>
-  </si>
-  <si>
-    <t>induction procedure</t>
-  </si>
-  <si>
-    <t>145763166</t>
-  </si>
-  <si>
-    <t>157490675</t>
-  </si>
-  <si>
-    <t>131364</t>
-  </si>
-  <si>
-    <t>schistosomiasis</t>
-  </si>
-  <si>
-    <t>137862647</t>
-  </si>
-  <si>
-    <t>106428586</t>
-  </si>
-  <si>
-    <t>836626</t>
-  </si>
-  <si>
-    <t>sodium chloride</t>
-  </si>
-  <si>
-    <t>142573976</t>
-  </si>
-  <si>
-    <t>124163190</t>
-  </si>
-  <si>
-    <t>4049113</t>
-  </si>
-  <si>
-    <t>ischemia</t>
-  </si>
-  <si>
-    <t>130336059</t>
-  </si>
-  <si>
-    <t>199313110</t>
-  </si>
-  <si>
-    <t>4048979</t>
-  </si>
-  <si>
-    <t>mus</t>
-  </si>
-  <si>
-    <t>134485403</t>
-  </si>
-  <si>
-    <t>117560030</t>
-  </si>
-  <si>
-    <t>143115399</t>
+    <t>61186033</t>
+  </si>
+  <si>
+    <t>51965121</t>
+  </si>
+  <si>
+    <t>62155710</t>
+  </si>
+  <si>
+    <t>62156702</t>
+  </si>
+  <si>
+    <t>68879520</t>
+  </si>
+  <si>
+    <t>61163309</t>
   </si>
   <si>
     <t>3072277</t>
@@ -908,1006 +1901,13 @@
     <t>antimicrobial susceptibility</t>
   </si>
   <si>
-    <t>186785843</t>
-  </si>
-  <si>
-    <t>129330429</t>
-  </si>
-  <si>
-    <t>163589276</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>118148545</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>197020766</t>
-  </si>
-  <si>
-    <t>117754899</t>
-  </si>
-  <si>
-    <t>614774</t>
-  </si>
-  <si>
-    <t>nitric oxide</t>
-  </si>
-  <si>
-    <t>124309410</t>
-  </si>
-  <si>
-    <t>151877645</t>
-  </si>
-  <si>
-    <t>126066817</t>
-  </si>
-  <si>
-    <t>5127800</t>
-  </si>
-  <si>
-    <t>psychotherapy, multiple</t>
-  </si>
-  <si>
-    <t>165300808</t>
-  </si>
-  <si>
-    <t>189525716</t>
-  </si>
-  <si>
-    <t>3779305</t>
-  </si>
-  <si>
-    <t>consumption-archaic term for tb</t>
-  </si>
-  <si>
-    <t>129929200</t>
-  </si>
-  <si>
-    <t>155382965</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>172220962</t>
-  </si>
-  <si>
-    <t>137190913</t>
-  </si>
-  <si>
-    <t>3131611</t>
-  </si>
-  <si>
-    <t>observation parameter</t>
-  </si>
-  <si>
-    <t>142361883</t>
-  </si>
-  <si>
-    <t>161570157</t>
-  </si>
-  <si>
-    <t>does not inhibit</t>
-  </si>
-  <si>
-    <t>146988051</t>
-  </si>
-  <si>
-    <t>151329634</t>
-  </si>
-  <si>
-    <t>133378586</t>
-  </si>
-  <si>
-    <t>121488340</t>
-  </si>
-  <si>
-    <t>122711117</t>
-  </si>
-  <si>
-    <t>2506281</t>
-  </si>
-  <si>
-    <t>adverse effects</t>
-  </si>
-  <si>
-    <t>154451760</t>
-  </si>
-  <si>
-    <t>169792179</t>
-  </si>
-  <si>
-    <t>131950771</t>
-  </si>
-  <si>
-    <t>126364089</t>
-  </si>
-  <si>
-    <t>167819730</t>
-  </si>
-  <si>
-    <t>143686430</t>
-  </si>
-  <si>
-    <t>128146633</t>
-  </si>
-  <si>
-    <t>186056177</t>
-  </si>
-  <si>
-    <t>84764</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>120102840</t>
-  </si>
-  <si>
-    <t>does not disrupt</t>
-  </si>
-  <si>
-    <t>121903668</t>
-  </si>
-  <si>
-    <t>157035455</t>
-  </si>
-  <si>
-    <t>701874</t>
-  </si>
-  <si>
-    <t>pregnant women</t>
-  </si>
-  <si>
-    <t>135541384</t>
-  </si>
-  <si>
-    <t>138791840</t>
-  </si>
-  <si>
-    <t>139686911</t>
-  </si>
-  <si>
-    <t>6107559</t>
-  </si>
-  <si>
-    <t>application procedure</t>
-  </si>
-  <si>
-    <t>189615485</t>
-  </si>
-  <si>
-    <t>119650544</t>
-  </si>
-  <si>
-    <t>146250271</t>
-  </si>
-  <si>
-    <t>173023683</t>
-  </si>
-  <si>
-    <t>544027</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>162885597</t>
-  </si>
-  <si>
-    <t>157097821</t>
-  </si>
-  <si>
-    <t>478055</t>
-  </si>
-  <si>
-    <t>ambulatory care services</t>
-  </si>
-  <si>
-    <t>191790522</t>
-  </si>
-  <si>
-    <t>150572951</t>
-  </si>
-  <si>
-    <t>476523</t>
-  </si>
-  <si>
-    <t>cardiovascular diseases</t>
-  </si>
-  <si>
-    <t>171772976</t>
-  </si>
-  <si>
-    <t>172807655</t>
-  </si>
-  <si>
-    <t>4048474</t>
-  </si>
-  <si>
-    <t>hemorrhage</t>
-  </si>
-  <si>
-    <t>173026975</t>
-  </si>
-  <si>
-    <t>79531792</t>
-  </si>
-  <si>
-    <t>182508633</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>185732772</t>
-  </si>
-  <si>
-    <t>138355190</t>
-  </si>
-  <si>
-    <t>180227461</t>
-  </si>
-  <si>
-    <t>4041859</t>
-  </si>
-  <si>
-    <t>blood circulation</t>
-  </si>
-  <si>
-    <t>127341928</t>
-  </si>
-  <si>
-    <t>189346589</t>
-  </si>
-  <si>
-    <t>163783126</t>
-  </si>
-  <si>
-    <t>4040861</t>
-  </si>
-  <si>
-    <t>complication</t>
-  </si>
-  <si>
-    <t>156572148</t>
-  </si>
-  <si>
-    <t>182211973</t>
-  </si>
-  <si>
-    <t>does not coexist with</t>
-  </si>
-  <si>
-    <t>138275348</t>
-  </si>
-  <si>
-    <t>121863015</t>
-  </si>
-  <si>
-    <t>134799695</t>
-  </si>
-  <si>
-    <t>135090880</t>
-  </si>
-  <si>
-    <t>134324417</t>
-  </si>
-  <si>
-    <t>131312492</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>140932314</t>
-  </si>
-  <si>
-    <t>119807944</t>
-  </si>
-  <si>
-    <t>150338120</t>
-  </si>
-  <si>
-    <t>134120840</t>
-  </si>
-  <si>
-    <t>179702313</t>
-  </si>
-  <si>
-    <t>143426314</t>
-  </si>
-  <si>
-    <t>172729941</t>
-  </si>
-  <si>
-    <t>127289764</t>
-  </si>
-  <si>
-    <t>148189476</t>
-  </si>
-  <si>
-    <t>127251452</t>
-  </si>
-  <si>
-    <t>121767751</t>
-  </si>
-  <si>
-    <t>177123374</t>
-  </si>
-  <si>
-    <t>118951813</t>
-  </si>
-  <si>
-    <t>131456971</t>
-  </si>
-  <si>
-    <t>141970822</t>
-  </si>
-  <si>
-    <t>119763181</t>
-  </si>
-  <si>
-    <t>3815757</t>
-  </si>
-  <si>
-    <t>treatment protocols</t>
-  </si>
-  <si>
-    <t>161502728</t>
-  </si>
-  <si>
-    <t>160792498</t>
-  </si>
-  <si>
-    <t>145977518</t>
-  </si>
-  <si>
-    <t>121510530</t>
-  </si>
-  <si>
-    <t>127970434</t>
-  </si>
-  <si>
-    <t>127341920</t>
-  </si>
-  <si>
-    <t>158687313</t>
-  </si>
-  <si>
-    <t>165565373</t>
-  </si>
-  <si>
-    <t>3763784</t>
-  </si>
-  <si>
-    <t>recovery - action</t>
-  </si>
-  <si>
-    <t>Activities &amp; Behaviors</t>
-  </si>
-  <si>
-    <t>175138505</t>
-  </si>
-  <si>
-    <t>136446742</t>
-  </si>
-  <si>
-    <t>143921695</t>
-  </si>
-  <si>
-    <t>3202301</t>
-  </si>
-  <si>
-    <t>systemic arterial pressure</t>
-  </si>
-  <si>
-    <t>153136227</t>
-  </si>
-  <si>
-    <t>144343906</t>
-  </si>
-  <si>
-    <t>124564582</t>
-  </si>
-  <si>
-    <t>121454534</t>
-  </si>
-  <si>
-    <t>173648541</t>
-  </si>
-  <si>
-    <t>2899046</t>
-  </si>
-  <si>
-    <t>areae</t>
-  </si>
-  <si>
-    <t>125486406</t>
-  </si>
-  <si>
-    <t>135405134</t>
-  </si>
-  <si>
-    <t>2822765</t>
-  </si>
-  <si>
-    <t>kidney failure</t>
-  </si>
-  <si>
-    <t>137175994</t>
-  </si>
-  <si>
-    <t>139761676</t>
-  </si>
-  <si>
-    <t>143686327</t>
-  </si>
-  <si>
-    <t>106466246</t>
-  </si>
-  <si>
-    <t>2612598</t>
-  </si>
-  <si>
-    <t>endothelial dysfunction</t>
-  </si>
-  <si>
-    <t>174122014</t>
-  </si>
-  <si>
-    <t>180542178</t>
-  </si>
-  <si>
-    <t>146785590</t>
-  </si>
-  <si>
-    <t>122947</t>
-  </si>
-  <si>
-    <t>erythropoiesis</t>
-  </si>
-  <si>
-    <t>139435805</t>
-  </si>
-  <si>
-    <t>124914647</t>
-  </si>
-  <si>
-    <t>760841</t>
-  </si>
-  <si>
-    <t>domestic rabbit</t>
-  </si>
-  <si>
-    <t>158040271</t>
-  </si>
-  <si>
-    <t>126931725</t>
-  </si>
-  <si>
-    <t>118211939</t>
-  </si>
-  <si>
-    <t>643114</t>
-  </si>
-  <si>
-    <t>aspirin</t>
-  </si>
-  <si>
-    <t>156572126</t>
-  </si>
-  <si>
-    <t>172017364</t>
-  </si>
-  <si>
-    <t>175234694</t>
-  </si>
-  <si>
-    <t>does not predispose</t>
-  </si>
-  <si>
-    <t>155747686</t>
-  </si>
-  <si>
-    <t>131542518</t>
-  </si>
-  <si>
-    <t>121835306</t>
-  </si>
-  <si>
-    <t>621064</t>
-  </si>
-  <si>
-    <t>reactive oxygen species</t>
-  </si>
-  <si>
-    <t>164972825</t>
-  </si>
-  <si>
-    <t>134934393</t>
-  </si>
-  <si>
-    <t>5806848</t>
-  </si>
-  <si>
-    <t>coronary occlusion</t>
-  </si>
-  <si>
-    <t>127404501</t>
-  </si>
-  <si>
-    <t>141263133</t>
-  </si>
-  <si>
-    <t>5699144</t>
-  </si>
-  <si>
-    <t>ethanol</t>
-  </si>
-  <si>
-    <t>188515913</t>
-  </si>
-  <si>
-    <t>139952611</t>
-  </si>
-  <si>
-    <t>162246372</t>
-  </si>
-  <si>
-    <t>5699005</t>
-  </si>
-  <si>
-    <t>falls</t>
-  </si>
-  <si>
-    <t>119691940</t>
-  </si>
-  <si>
-    <t>129860355</t>
-  </si>
-  <si>
-    <t>5648475</t>
-  </si>
-  <si>
-    <t>vasodilation</t>
-  </si>
-  <si>
-    <t>182694190</t>
-  </si>
-  <si>
-    <t>193813340</t>
-  </si>
-  <si>
-    <t>136606219</t>
-  </si>
-  <si>
-    <t>132385571</t>
-  </si>
-  <si>
-    <t>524085</t>
-  </si>
-  <si>
-    <t>epoprostenol</t>
-  </si>
-  <si>
-    <t>120119992</t>
-  </si>
-  <si>
-    <t>120118067</t>
-  </si>
-  <si>
-    <t>148043485</t>
-  </si>
-  <si>
-    <t>128167946</t>
-  </si>
-  <si>
-    <t>132024845</t>
-  </si>
-  <si>
-    <t>142189651</t>
-  </si>
-  <si>
-    <t>118540465</t>
-  </si>
-  <si>
-    <t>5127262</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>130698463</t>
-  </si>
-  <si>
-    <t>186226287</t>
-  </si>
-  <si>
-    <t>is not associated with</t>
-  </si>
-  <si>
-    <t>182982246</t>
-  </si>
-  <si>
-    <t>5028471</t>
-  </si>
-  <si>
-    <t>biopsy</t>
-  </si>
-  <si>
-    <t>140823932</t>
-  </si>
-  <si>
-    <t>159805269</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>444837</t>
-  </si>
-  <si>
-    <t>alkaline phosphatase</t>
-  </si>
-  <si>
-    <t>169608447</t>
-  </si>
-  <si>
-    <t>189191028</t>
-  </si>
-  <si>
-    <t>134882348</t>
-  </si>
-  <si>
-    <t>4049133</t>
-  </si>
-  <si>
-    <t>hyperplasia</t>
-  </si>
-  <si>
-    <t>190029060</t>
-  </si>
-  <si>
-    <t>149361356</t>
-  </si>
-  <si>
-    <t>4047603</t>
-  </si>
-  <si>
-    <t>pulmonary hypertension</t>
-  </si>
-  <si>
-    <t>123637941</t>
-  </si>
-  <si>
-    <t>137682861</t>
-  </si>
-  <si>
-    <t>149902182</t>
-  </si>
-  <si>
-    <t>4041249</t>
-  </si>
-  <si>
-    <t>colon structure (body structure)</t>
-  </si>
-  <si>
-    <t>127382137</t>
-  </si>
-  <si>
-    <t>is not location of</t>
-  </si>
-  <si>
-    <t>161766616</t>
-  </si>
-  <si>
-    <t>4035388</t>
-  </si>
-  <si>
-    <t>fasting</t>
-  </si>
-  <si>
-    <t>189797737</t>
-  </si>
-  <si>
-    <t>120524928</t>
-  </si>
-  <si>
-    <t>4028545</t>
-  </si>
-  <si>
-    <t>ligation</t>
-  </si>
-  <si>
-    <t>170726892</t>
-  </si>
-  <si>
-    <t>170726716</t>
-  </si>
-  <si>
-    <t>148982294</t>
-  </si>
-  <si>
-    <t>170719027</t>
-  </si>
-  <si>
-    <t>179694929</t>
-  </si>
-  <si>
-    <t>199661804</t>
-  </si>
-  <si>
-    <t>199455973</t>
-  </si>
-  <si>
-    <t>3778105</t>
-  </si>
-  <si>
-    <t>renal function</t>
-  </si>
-  <si>
-    <t>136192560</t>
-  </si>
-  <si>
-    <t>140117672</t>
-  </si>
-  <si>
-    <t>179513980</t>
-  </si>
-  <si>
-    <t>142063370</t>
-  </si>
-  <si>
-    <t>3769667</t>
-  </si>
-  <si>
-    <t>blood flow</t>
-  </si>
-  <si>
-    <t>137305278</t>
-  </si>
-  <si>
-    <t>117488845</t>
-  </si>
-  <si>
-    <t>125815372</t>
-  </si>
-  <si>
-    <t>120335549</t>
-  </si>
-  <si>
-    <t>3767500</t>
-  </si>
-  <si>
-    <t>chronic failure</t>
-  </si>
-  <si>
-    <t>122863547</t>
-  </si>
-  <si>
-    <t>141066774</t>
-  </si>
-  <si>
-    <t>331275</t>
-  </si>
-  <si>
-    <t>rats, wistar</t>
-  </si>
-  <si>
-    <t>180542231</t>
-  </si>
-  <si>
-    <t>198132805</t>
-  </si>
-  <si>
-    <t>320774</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>165806044</t>
-  </si>
-  <si>
-    <t>171219422</t>
-  </si>
-  <si>
-    <t>3117088</t>
-  </si>
-  <si>
-    <t>mean blood pressure</t>
-  </si>
-  <si>
-    <t>180326368</t>
-  </si>
-  <si>
-    <t>173618853</t>
-  </si>
-  <si>
-    <t>123059978</t>
-  </si>
-  <si>
-    <t>3017197</t>
-  </si>
-  <si>
-    <t>ercc8 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>160845344</t>
-  </si>
-  <si>
-    <t>168117636</t>
-  </si>
-  <si>
-    <t>150399803</t>
-  </si>
-  <si>
-    <t>2940375</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>138976465</t>
-  </si>
-  <si>
-    <t>120413392</t>
-  </si>
-  <si>
-    <t>120523987</t>
-  </si>
-  <si>
-    <t>125971092</t>
-  </si>
-  <si>
-    <t>181528403</t>
-  </si>
-  <si>
-    <t>120523904</t>
-  </si>
-  <si>
-    <t>2863639</t>
-  </si>
-  <si>
-    <t>peripheral blood mononuclear cell (cell)</t>
-  </si>
-  <si>
-    <t>191437423</t>
-  </si>
-  <si>
-    <t>178137710</t>
-  </si>
-  <si>
-    <t>279948</t>
-  </si>
-  <si>
-    <t>diltiazem</t>
-  </si>
-  <si>
-    <t>133029927</t>
-  </si>
-  <si>
-    <t>133030447</t>
-  </si>
-  <si>
-    <t>152322310</t>
-  </si>
-  <si>
-    <t>163882851</t>
-  </si>
-  <si>
-    <t>2635842</t>
-  </si>
-  <si>
-    <t>congener</t>
-  </si>
-  <si>
-    <t>162782028</t>
-  </si>
-  <si>
-    <t>130913717</t>
-  </si>
-  <si>
-    <t>2464005</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>Concepts &amp; Ideas</t>
-  </si>
-  <si>
-    <t>178061228</t>
-  </si>
-  <si>
-    <t>126627493</t>
-  </si>
-  <si>
-    <t>189937051</t>
-  </si>
-  <si>
-    <t>2441516</t>
-  </si>
-  <si>
-    <t>cardiac patient</t>
-  </si>
-  <si>
-    <t>139789395</t>
-  </si>
-  <si>
-    <t>148576353</t>
-  </si>
-  <si>
-    <t>2434669</t>
-  </si>
-  <si>
-    <t>nitrate</t>
-  </si>
-  <si>
-    <t>132999931</t>
-  </si>
-  <si>
-    <t>131786962</t>
-  </si>
-  <si>
-    <t>125138601</t>
-  </si>
-  <si>
-    <t>131774447</t>
-  </si>
-  <si>
-    <t>120677390</t>
-  </si>
-  <si>
-    <t>185980707</t>
-  </si>
-  <si>
-    <t>converts to</t>
-  </si>
-  <si>
-    <t>165470747</t>
-  </si>
-  <si>
-    <t>2406591</t>
-  </si>
-  <si>
-    <t>infusion procedures</t>
-  </si>
-  <si>
-    <t>169198201</t>
-  </si>
-  <si>
-    <t>156594641</t>
-  </si>
-  <si>
-    <t>135861715</t>
-  </si>
-  <si>
-    <t>178238642</t>
-  </si>
-  <si>
-    <t>118315883</t>
+    <t>120574319</t>
+  </si>
+  <si>
+    <t>62841829</t>
+  </si>
+  <si>
+    <t>97381673</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>351.0</v>
+        <v>119.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -2159,40 +2159,10 @@
       <c r="P2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V2" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>122.0</v>
+        <v>109.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2204,13 +2174,13 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -2222,27 +2192,27 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>109.0</v>
+        <v>101.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -2254,45 +2224,75 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" t="s">
         <v>80</v>
       </c>
-      <c r="F4" t="s">
+      <c r="S4" t="s">
         <v>81</v>
       </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="T4" t="s">
         <v>82</v>
       </c>
-      <c r="L4" t="s">
+      <c r="U4" t="s">
         <v>83</v>
       </c>
-      <c r="M4" t="s">
+      <c r="V4" t="s">
         <v>84</v>
       </c>
-      <c r="N4" t="s">
+      <c r="W4" t="s">
         <v>85</v>
       </c>
-      <c r="O4" t="s">
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
         <v>86</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Z4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73.0</v>
+        <v>89.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -2337,90 +2337,36 @@
         <v>95</v>
       </c>
       <c r="P5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" t="s">
         <v>96</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" t="s">
         <v>97</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>98</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>99</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>100</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>101</v>
       </c>
-      <c r="V5" t="s">
-        <v>102</v>
-      </c>
-      <c r="W5" t="s">
-        <v>103</v>
-      </c>
       <c r="X5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>49.0</v>
+        <v>72.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -2432,13 +2378,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -2450,33 +2396,33 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="Q6" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="R6" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>37.0</v>
+        <v>55.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2488,10 +2434,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -2506,21 +2452,27 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="O7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30.0</v>
+        <v>53.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -2532,13 +2484,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -2550,21 +2502,27 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="N8" t="s">
         <v>70</v>
       </c>
+      <c r="O8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25.0</v>
+        <v>49.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -2576,13 +2534,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -2594,27 +2552,33 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="M9" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>125</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>23.0</v>
+        <v>41.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2626,10 +2590,10 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
         <v>58</v>
@@ -2644,21 +2608,45 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>132</v>
+      </c>
+      <c r="O10" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10" t="s">
+        <v>135</v>
+      </c>
+      <c r="T10" t="s">
+        <v>125</v>
+      </c>
+      <c r="U10" t="s">
+        <v>136</v>
+      </c>
+      <c r="V10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21.0</v>
+        <v>37.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2670,13 +2658,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -2688,39 +2676,21 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s">
-        <v>147</v>
-      </c>
-      <c r="P11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>148</v>
-      </c>
-      <c r="R11" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" t="s">
-        <v>149</v>
-      </c>
-      <c r="T11" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -2732,13 +2702,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -2750,21 +2720,21 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="M12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2776,13 +2746,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -2794,33 +2764,27 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="M13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>161</v>
-      </c>
-      <c r="R13" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2832,13 +2796,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -2850,16 +2814,16 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -2876,10 +2840,10 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
         <v>58</v>
@@ -2894,16 +2858,34 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>98</v>
+      </c>
+      <c r="O15" t="s">
+        <v>158</v>
+      </c>
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>159</v>
+      </c>
+      <c r="R15" t="s">
+        <v>118</v>
+      </c>
+      <c r="S15" t="s">
+        <v>160</v>
+      </c>
+      <c r="T15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -2920,13 +2902,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -2938,16 +2920,16 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -2964,10 +2946,10 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
         <v>58</v>
@@ -2982,16 +2964,28 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M17" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>118</v>
+      </c>
+      <c r="O17" t="s">
+        <v>170</v>
+      </c>
+      <c r="P17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>172</v>
+      </c>
+      <c r="R17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18">
@@ -3008,13 +3002,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -3026,13 +3020,13 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N18" t="s">
         <v>70</v>
@@ -3040,7 +3034,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -3052,13 +3046,13 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -3070,51 +3064,21 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="M19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N19" t="s">
-        <v>100</v>
-      </c>
-      <c r="O19" t="s">
-        <v>187</v>
-      </c>
-      <c r="P19" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>188</v>
-      </c>
-      <c r="R19" t="s">
-        <v>85</v>
-      </c>
-      <c r="S19" t="s">
-        <v>189</v>
-      </c>
-      <c r="T19" t="s">
-        <v>60</v>
-      </c>
-      <c r="U19" t="s">
-        <v>190</v>
-      </c>
-      <c r="V19" t="s">
-        <v>116</v>
-      </c>
-      <c r="W19" t="s">
-        <v>191</v>
-      </c>
-      <c r="X19" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -3126,13 +3090,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -3144,27 +3108,21 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M20" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="N20" t="s">
-        <v>85</v>
-      </c>
-      <c r="O20" t="s">
-        <v>196</v>
-      </c>
-      <c r="P20" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -3176,13 +3134,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -3194,45 +3152,21 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N21" t="s">
-        <v>146</v>
-      </c>
-      <c r="O21" t="s">
-        <v>202</v>
-      </c>
-      <c r="P21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>203</v>
-      </c>
-      <c r="R21" t="s">
-        <v>204</v>
-      </c>
-      <c r="S21" t="s">
-        <v>205</v>
-      </c>
-      <c r="T21" t="s">
-        <v>206</v>
-      </c>
-      <c r="U21" t="s">
-        <v>207</v>
-      </c>
-      <c r="V21" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -3244,13 +3178,13 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -3262,33 +3196,21 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="M22" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s">
         <v>64</v>
       </c>
-      <c r="O22" t="s">
-        <v>212</v>
-      </c>
-      <c r="P22" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>213</v>
-      </c>
-      <c r="R22" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -3300,13 +3222,13 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -3318,21 +3240,27 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M23" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s">
-        <v>70</v>
+        <v>125</v>
+      </c>
+      <c r="O23" t="s">
+        <v>197</v>
+      </c>
+      <c r="P23" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -3344,13 +3272,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -3362,27 +3290,33 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M24" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="N24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O24" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>203</v>
+      </c>
+      <c r="R24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -3394,10 +3328,10 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
         <v>55</v>
@@ -3412,28 +3346,16 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M25" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="N25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O25" t="s">
-        <v>227</v>
-      </c>
-      <c r="P25" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>228</v>
-      </c>
-      <c r="R25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -3450,10 +3372,10 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
         <v>55</v>
@@ -3468,19 +3390,19 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s">
         <v>62</v>
       </c>
       <c r="M26" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="N26" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="O26" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="P26" t="s">
         <v>64</v>
@@ -3488,7 +3410,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -3500,10 +3422,10 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
         <v>55</v>
@@ -3518,28 +3440,22 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s">
         <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="N27" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="O27" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="P27" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>239</v>
-      </c>
-      <c r="R27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -3556,40 +3472,118 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="s">
+        <v>222</v>
+      </c>
+      <c r="N28" t="s">
+        <v>223</v>
+      </c>
+      <c r="O28" t="s">
+        <v>224</v>
+      </c>
+      <c r="P28" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>226</v>
+      </c>
+      <c r="R28" t="s">
+        <v>227</v>
+      </c>
+      <c r="S28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T28" t="s">
+        <v>94</v>
+      </c>
+      <c r="U28" t="s">
+        <v>229</v>
+      </c>
+      <c r="V28" t="s">
+        <v>98</v>
+      </c>
+      <c r="W28" t="s">
+        <v>230</v>
+      </c>
+      <c r="X28" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM28" t="s">
         <v>240</v>
       </c>
-      <c r="F28" t="s">
+      <c r="AN28" t="s">
         <v>241</v>
       </c>
-      <c r="G28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="AO28" t="s">
         <v>242</v>
       </c>
-      <c r="L28" t="s">
-        <v>85</v>
-      </c>
-      <c r="M28" t="s">
-        <v>243</v>
-      </c>
-      <c r="N28" t="s">
-        <v>87</v>
-      </c>
-      <c r="O28" t="s">
-        <v>244</v>
-      </c>
-      <c r="P28" t="s">
-        <v>146</v>
+      <c r="AP28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -3606,10 +3600,10 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G29" t="s">
         <v>90</v>
@@ -3624,51 +3618,27 @@
         <v>58</v>
       </c>
       <c r="K29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" t="s">
+        <v>246</v>
+      </c>
+      <c r="N29" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" t="s">
         <v>247</v>
       </c>
-      <c r="L29" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" t="s">
-        <v>248</v>
-      </c>
-      <c r="N29" t="s">
-        <v>100</v>
-      </c>
-      <c r="O29" t="s">
-        <v>249</v>
-      </c>
       <c r="P29" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>250</v>
-      </c>
-      <c r="R29" t="s">
-        <v>64</v>
-      </c>
-      <c r="S29" t="s">
-        <v>251</v>
-      </c>
-      <c r="T29" t="s">
-        <v>60</v>
-      </c>
-      <c r="U29" t="s">
-        <v>252</v>
-      </c>
-      <c r="V29" t="s">
-        <v>85</v>
-      </c>
-      <c r="W29" t="s">
-        <v>253</v>
-      </c>
-      <c r="X29" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3680,10 +3650,10 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G30" t="s">
         <v>90</v>
@@ -3698,33 +3668,51 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="s">
+        <v>251</v>
+      </c>
+      <c r="N30" t="s">
+        <v>94</v>
+      </c>
+      <c r="O30" t="s">
+        <v>252</v>
+      </c>
+      <c r="P30" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>253</v>
+      </c>
+      <c r="R30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S30" t="s">
+        <v>254</v>
+      </c>
+      <c r="T30" t="s">
+        <v>98</v>
+      </c>
+      <c r="U30" t="s">
+        <v>255</v>
+      </c>
+      <c r="V30" t="s">
+        <v>100</v>
+      </c>
+      <c r="W30" t="s">
         <v>256</v>
       </c>
-      <c r="L30" t="s">
-        <v>100</v>
-      </c>
-      <c r="M30" t="s">
-        <v>257</v>
-      </c>
-      <c r="N30" t="s">
-        <v>104</v>
-      </c>
-      <c r="O30" t="s">
-        <v>258</v>
-      </c>
-      <c r="P30" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>259</v>
-      </c>
-      <c r="R30" t="s">
-        <v>64</v>
+      <c r="X30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -3736,10 +3724,10 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G31" t="s">
         <v>90</v>
@@ -3754,22 +3742,16 @@
         <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s">
-        <v>60</v>
-      </c>
-      <c r="O31" t="s">
-        <v>264</v>
-      </c>
-      <c r="P31" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
@@ -3786,13 +3768,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -3804,57 +3786,21 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="M32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N32" t="s">
-        <v>98</v>
-      </c>
-      <c r="O32" t="s">
-        <v>269</v>
-      </c>
-      <c r="P32" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>270</v>
-      </c>
-      <c r="R32" t="s">
-        <v>96</v>
-      </c>
-      <c r="S32" t="s">
-        <v>271</v>
-      </c>
-      <c r="T32" t="s">
-        <v>185</v>
-      </c>
-      <c r="U32" t="s">
-        <v>272</v>
-      </c>
-      <c r="V32" t="s">
-        <v>60</v>
-      </c>
-      <c r="W32" t="s">
-        <v>273</v>
-      </c>
-      <c r="X32" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -3866,13 +3812,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -3884,21 +3830,21 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="M33" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N33" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -3910,13 +3856,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -3928,16 +3874,22 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" t="s">
+        <v>272</v>
+      </c>
+      <c r="N34" t="s">
         <v>60</v>
       </c>
-      <c r="M34" t="s">
-        <v>282</v>
-      </c>
-      <c r="N34" t="s">
-        <v>160</v>
+      <c r="O34" t="s">
+        <v>273</v>
+      </c>
+      <c r="P34" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="35">
@@ -3954,13 +3906,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -3972,16 +3924,16 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="M35" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N35" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -3998,13 +3950,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F36" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -4016,16 +3968,22 @@
         <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M36" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="N36" t="s">
-        <v>123</v>
+        <v>80</v>
+      </c>
+      <c r="O36" t="s">
+        <v>282</v>
+      </c>
+      <c r="P36" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37">
@@ -4042,40 +4000,70 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" t="s">
+        <v>285</v>
+      </c>
+      <c r="L37" t="s">
+        <v>223</v>
+      </c>
+      <c r="M37" t="s">
+        <v>286</v>
+      </c>
+      <c r="N37" t="s">
+        <v>225</v>
+      </c>
+      <c r="O37" t="s">
+        <v>287</v>
+      </c>
+      <c r="P37" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>288</v>
+      </c>
+      <c r="R37" t="s">
+        <v>223</v>
+      </c>
+      <c r="S37" t="s">
+        <v>289</v>
+      </c>
+      <c r="T37" t="s">
+        <v>94</v>
+      </c>
+      <c r="U37" t="s">
+        <v>290</v>
+      </c>
+      <c r="V37" t="s">
+        <v>62</v>
+      </c>
+      <c r="W37" t="s">
         <v>291</v>
       </c>
-      <c r="F37" t="s">
+      <c r="X37" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y37" t="s">
         <v>292</v>
       </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" t="s">
-        <v>293</v>
-      </c>
-      <c r="L37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M37" t="s">
-        <v>294</v>
-      </c>
-      <c r="N37" t="s">
-        <v>70</v>
-      </c>
-      <c r="O37" t="s">
-        <v>295</v>
-      </c>
-      <c r="P37" t="s">
-        <v>66</v>
+      <c r="Z37" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38">
@@ -4092,40 +4080,70 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
+        <v>293</v>
+      </c>
+      <c r="F38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" t="s">
+        <v>295</v>
+      </c>
+      <c r="L38" t="s">
+        <v>223</v>
+      </c>
+      <c r="M38" t="s">
         <v>296</v>
       </c>
-      <c r="F38" t="s">
+      <c r="N38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O38" t="s">
         <v>297</v>
       </c>
-      <c r="G38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="P38" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" t="s">
         <v>298</v>
       </c>
-      <c r="L38" t="s">
-        <v>204</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="R38" t="s">
+        <v>62</v>
+      </c>
+      <c r="S38" t="s">
         <v>299</v>
       </c>
-      <c r="N38" t="s">
-        <v>116</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="T38" t="s">
+        <v>72</v>
+      </c>
+      <c r="U38" t="s">
         <v>300</v>
       </c>
-      <c r="P38" t="s">
-        <v>123</v>
+      <c r="V38" t="s">
+        <v>100</v>
+      </c>
+      <c r="W38" t="s">
+        <v>301</v>
+      </c>
+      <c r="X38" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="39">
@@ -4142,13 +4160,13 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -4160,22 +4178,22 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P39" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -4192,13 +4210,13 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -4210,22 +4228,28 @@
         <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="M40" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N40" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="O40" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>64</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>315</v>
+      </c>
+      <c r="R40" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -4242,10 +4266,10 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F41" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G41" t="s">
         <v>90</v>
@@ -4260,16 +4284,16 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M41" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N41" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
@@ -4286,10 +4310,10 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F42" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>
@@ -4304,33 +4328,57 @@
         <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="M42" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N42" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O42" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P42" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="Q42" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="R42" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="S42" t="s">
+        <v>327</v>
+      </c>
+      <c r="T42" t="s">
+        <v>125</v>
+      </c>
+      <c r="U42" t="s">
+        <v>328</v>
+      </c>
+      <c r="V42" t="s">
+        <v>72</v>
+      </c>
+      <c r="W42" t="s">
+        <v>329</v>
+      </c>
+      <c r="X42" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
@@ -4342,13 +4390,13 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F43" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>333</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -4360,51 +4408,27 @@
         <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s">
-        <v>64</v>
+        <v>335</v>
       </c>
       <c r="M43" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="N43" t="s">
-        <v>328</v>
+        <v>84</v>
       </c>
       <c r="O43" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P43" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>330</v>
-      </c>
-      <c r="R43" t="s">
-        <v>116</v>
-      </c>
-      <c r="S43" t="s">
-        <v>331</v>
-      </c>
-      <c r="T43" t="s">
-        <v>123</v>
-      </c>
-      <c r="U43" t="s">
-        <v>332</v>
-      </c>
-      <c r="V43" t="s">
-        <v>123</v>
-      </c>
-      <c r="W43" t="s">
-        <v>333</v>
-      </c>
-      <c r="X43" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
@@ -4416,13 +4440,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F44" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -4434,52 +4458,28 @@
         <v>58</v>
       </c>
       <c r="K44" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M44" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N44" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="O44" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P44" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="Q44" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="R44" t="s">
-        <v>85</v>
-      </c>
-      <c r="S44" t="s">
-        <v>340</v>
-      </c>
-      <c r="T44" t="s">
-        <v>123</v>
-      </c>
-      <c r="U44" t="s">
-        <v>341</v>
-      </c>
-      <c r="V44" t="s">
-        <v>123</v>
-      </c>
-      <c r="W44" t="s">
-        <v>342</v>
-      </c>
-      <c r="X44" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>343</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -4502,34 +4502,28 @@
         <v>345</v>
       </c>
       <c r="G45" t="s">
+        <v>305</v>
+      </c>
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" t="s">
         <v>346</v>
       </c>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
+        <v>84</v>
+      </c>
+      <c r="M45" t="s">
         <v>347</v>
       </c>
-      <c r="L45" t="s">
-        <v>348</v>
-      </c>
-      <c r="M45" t="s">
-        <v>349</v>
-      </c>
       <c r="N45" t="s">
-        <v>64</v>
-      </c>
-      <c r="O45" t="s">
-        <v>350</v>
-      </c>
-      <c r="P45" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -4546,40 +4540,34 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
+        <v>348</v>
+      </c>
+      <c r="F46" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" t="s">
+        <v>350</v>
+      </c>
+      <c r="L46" t="s">
+        <v>94</v>
+      </c>
+      <c r="M46" t="s">
         <v>351</v>
       </c>
-      <c r="F46" t="s">
-        <v>352</v>
-      </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
-      <c r="H46" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" t="s">
-        <v>57</v>
-      </c>
-      <c r="J46" t="s">
-        <v>58</v>
-      </c>
-      <c r="K46" t="s">
-        <v>353</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="N46" t="s">
         <v>62</v>
-      </c>
-      <c r="M46" t="s">
-        <v>354</v>
-      </c>
-      <c r="N46" t="s">
-        <v>60</v>
-      </c>
-      <c r="O46" t="s">
-        <v>355</v>
-      </c>
-      <c r="P46" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -4596,13 +4584,13 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F47" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G47" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
@@ -4614,28 +4602,16 @@
         <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="M47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N47" t="s">
-        <v>104</v>
-      </c>
-      <c r="O47" t="s">
-        <v>360</v>
-      </c>
-      <c r="P47" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>361</v>
-      </c>
-      <c r="R47" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
@@ -4652,13 +4628,13 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F48" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G48" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="H48" t="s">
         <v>56</v>
@@ -4670,16 +4646,22 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="M48" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="N48" t="s">
-        <v>146</v>
+        <v>84</v>
+      </c>
+      <c r="O48" t="s">
+        <v>360</v>
+      </c>
+      <c r="P48" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="49">
@@ -4696,13 +4678,13 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F49" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
@@ -4714,16 +4696,52 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s">
         <v>100</v>
       </c>
       <c r="M49" t="s">
+        <v>364</v>
+      </c>
+      <c r="N49" t="s">
+        <v>125</v>
+      </c>
+      <c r="O49" t="s">
+        <v>365</v>
+      </c>
+      <c r="P49" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>366</v>
+      </c>
+      <c r="R49" t="s">
+        <v>367</v>
+      </c>
+      <c r="S49" t="s">
+        <v>368</v>
+      </c>
+      <c r="T49" t="s">
+        <v>84</v>
+      </c>
+      <c r="U49" t="s">
         <v>369</v>
       </c>
-      <c r="N49" t="s">
-        <v>60</v>
+      <c r="V49" t="s">
+        <v>125</v>
+      </c>
+      <c r="W49" t="s">
+        <v>370</v>
+      </c>
+      <c r="X49" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="50">
@@ -4740,13 +4758,13 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F50" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>333</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
@@ -4758,16 +4776,28 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L50" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="M50" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N50" t="s">
-        <v>123</v>
+        <v>376</v>
+      </c>
+      <c r="O50" t="s">
+        <v>377</v>
+      </c>
+      <c r="P50" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>378</v>
+      </c>
+      <c r="R50" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51">
@@ -4784,13 +4814,13 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>381</v>
       </c>
       <c r="H51" t="s">
         <v>56</v>
@@ -4802,40 +4832,22 @@
         <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="N51" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="O51" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P51" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>380</v>
-      </c>
-      <c r="R51" t="s">
-        <v>146</v>
-      </c>
-      <c r="S51" t="s">
-        <v>381</v>
-      </c>
-      <c r="T51" t="s">
-        <v>123</v>
-      </c>
-      <c r="U51" t="s">
-        <v>382</v>
-      </c>
-      <c r="V51" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
@@ -4852,13 +4864,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F52" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G52" t="s">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="H52" t="s">
         <v>56</v>
@@ -4870,21 +4882,15 @@
         <v>58</v>
       </c>
       <c r="K52" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L52" t="s">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c r="M52" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N52" t="s">
-        <v>64</v>
-      </c>
-      <c r="O52" t="s">
-        <v>387</v>
-      </c>
-      <c r="P52" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4902,10 +4908,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F53" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -4920,52 +4926,28 @@
         <v>58</v>
       </c>
       <c r="K53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="M53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N53" t="s">
-        <v>392</v>
+        <v>171</v>
       </c>
       <c r="O53" t="s">
         <v>393</v>
       </c>
       <c r="P53" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="Q53" t="s">
         <v>394</v>
       </c>
       <c r="R53" t="s">
-        <v>85</v>
-      </c>
-      <c r="S53" t="s">
-        <v>395</v>
-      </c>
-      <c r="T53" t="s">
-        <v>123</v>
-      </c>
-      <c r="U53" t="s">
-        <v>396</v>
-      </c>
-      <c r="V53" t="s">
-        <v>64</v>
-      </c>
-      <c r="W53" t="s">
-        <v>397</v>
-      </c>
-      <c r="X53" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54">
@@ -4982,118 +4964,40 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
+        <v>395</v>
+      </c>
+      <c r="F54" t="s">
+        <v>396</v>
+      </c>
+      <c r="G54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" t="s">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s">
+        <v>122</v>
+      </c>
+      <c r="M54" t="s">
+        <v>398</v>
+      </c>
+      <c r="N54" t="s">
+        <v>72</v>
+      </c>
+      <c r="O54" t="s">
         <v>399</v>
       </c>
-      <c r="F54" t="s">
-        <v>400</v>
-      </c>
-      <c r="G54" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" t="s">
-        <v>57</v>
-      </c>
-      <c r="J54" t="s">
-        <v>58</v>
-      </c>
-      <c r="K54" t="s">
-        <v>401</v>
-      </c>
-      <c r="L54" t="s">
-        <v>123</v>
-      </c>
-      <c r="M54" t="s">
-        <v>402</v>
-      </c>
-      <c r="N54" t="s">
-        <v>92</v>
-      </c>
-      <c r="O54" t="s">
-        <v>403</v>
-      </c>
       <c r="P54" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>404</v>
-      </c>
-      <c r="R54" t="s">
-        <v>83</v>
-      </c>
-      <c r="S54" t="s">
-        <v>405</v>
-      </c>
-      <c r="T54" t="s">
-        <v>100</v>
-      </c>
-      <c r="U54" t="s">
-        <v>406</v>
-      </c>
-      <c r="V54" t="s">
-        <v>83</v>
-      </c>
-      <c r="W54" t="s">
-        <v>407</v>
-      </c>
-      <c r="X54" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>408</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>409</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>412</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>413</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>414</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM54" t="s">
-        <v>415</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO54" t="s">
-        <v>416</v>
-      </c>
-      <c r="AP54" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
@@ -5110,13 +5014,13 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="F55" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>333</v>
       </c>
       <c r="H55" t="s">
         <v>56</v>
@@ -5128,57 +5032,21 @@
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="L55" t="s">
-        <v>100</v>
+        <v>324</v>
       </c>
       <c r="M55" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="N55" t="s">
-        <v>98</v>
-      </c>
-      <c r="O55" t="s">
-        <v>421</v>
-      </c>
-      <c r="P55" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>422</v>
-      </c>
-      <c r="R55" t="s">
-        <v>60</v>
-      </c>
-      <c r="S55" t="s">
-        <v>423</v>
-      </c>
-      <c r="T55" t="s">
-        <v>85</v>
-      </c>
-      <c r="U55" t="s">
-        <v>424</v>
-      </c>
-      <c r="V55" t="s">
-        <v>116</v>
-      </c>
-      <c r="W55" t="s">
-        <v>425</v>
-      </c>
-      <c r="X55" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>426</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
@@ -5190,13 +5058,13 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="F56" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="G56" t="s">
-        <v>429</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s">
         <v>56</v>
@@ -5208,27 +5076,45 @@
         <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M56" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="N56" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="O56" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="P56" t="s">
-        <v>64</v>
+        <v>241</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>409</v>
+      </c>
+      <c r="R56" t="s">
+        <v>237</v>
+      </c>
+      <c r="S56" t="s">
+        <v>410</v>
+      </c>
+      <c r="T56" t="s">
+        <v>411</v>
+      </c>
+      <c r="U56" t="s">
+        <v>412</v>
+      </c>
+      <c r="V56" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
@@ -5240,13 +5126,13 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="F57" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="G57" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s">
         <v>56</v>
@@ -5258,39 +5144,21 @@
         <v>58</v>
       </c>
       <c r="K57" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="M57" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="N57" t="s">
-        <v>60</v>
-      </c>
-      <c r="O57" t="s">
-        <v>437</v>
-      </c>
-      <c r="P57" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>438</v>
-      </c>
-      <c r="R57" t="s">
-        <v>64</v>
-      </c>
-      <c r="S57" t="s">
-        <v>439</v>
-      </c>
-      <c r="T57" t="s">
-        <v>64</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B58" t="s">
         <v>50</v>
@@ -5302,13 +5170,13 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="F58" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="G58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s">
         <v>56</v>
@@ -5320,21 +5188,27 @@
         <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="L58" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c r="M58" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="N58" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="O58" t="s">
+        <v>422</v>
+      </c>
+      <c r="P58" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B59" t="s">
         <v>50</v>
@@ -5346,10 +5220,10 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="F59" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="G59" t="s">
         <v>58</v>
@@ -5364,33 +5238,21 @@
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="L59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M59" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="N59" t="s">
-        <v>116</v>
-      </c>
-      <c r="O59" t="s">
-        <v>448</v>
-      </c>
-      <c r="P59" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>449</v>
-      </c>
-      <c r="R59" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B60" t="s">
         <v>50</v>
@@ -5402,13 +5264,13 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="F60" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="G60" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s">
         <v>56</v>
@@ -5420,27 +5282,27 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="N60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O60" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="P60" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B61" t="s">
         <v>50</v>
@@ -5452,13 +5314,13 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="F61" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="G61" t="s">
-        <v>346</v>
+        <v>58</v>
       </c>
       <c r="H61" t="s">
         <v>56</v>
@@ -5470,16 +5332,16 @@
         <v>58</v>
       </c>
       <c r="K61" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="L61" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="M61" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="N61" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62">
@@ -5496,13 +5358,13 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="F62" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="G62" t="s">
-        <v>55</v>
+        <v>333</v>
       </c>
       <c r="H62" t="s">
         <v>56</v>
@@ -5514,22 +5376,28 @@
         <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="M62" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="N62" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O62" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="P62" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>442</v>
+      </c>
+      <c r="R62" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="63">
@@ -5546,10 +5414,10 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="F63" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="G63" t="s">
         <v>52</v>
@@ -5564,40 +5432,46 @@
         <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="L63" t="s">
-        <v>98</v>
+        <v>430</v>
       </c>
       <c r="M63" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="N63" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="O63" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="P63" t="s">
-        <v>469</v>
+        <v>68</v>
       </c>
       <c r="Q63" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="R63" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="S63" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="T63" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="U63" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="V63" t="s">
-        <v>114</v>
+        <v>62</v>
+      </c>
+      <c r="W63" t="s">
+        <v>451</v>
+      </c>
+      <c r="X63" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="64">
@@ -5614,13 +5488,13 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="F64" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="G64" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H64" t="s">
         <v>56</v>
@@ -5632,16 +5506,22 @@
         <v>58</v>
       </c>
       <c r="K64" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="L64" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="M64" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="N64" t="s">
-        <v>206</v>
+        <v>72</v>
+      </c>
+      <c r="O64" t="s">
+        <v>456</v>
+      </c>
+      <c r="P64" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="65">
@@ -5658,13 +5538,13 @@
         <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="F65" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="G65" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s">
         <v>56</v>
@@ -5676,16 +5556,16 @@
         <v>58</v>
       </c>
       <c r="K65" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="L65" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M65" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="N65" t="s">
-        <v>64</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66">
@@ -5702,10 +5582,10 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="F66" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="G66" t="s">
         <v>52</v>
@@ -5720,22 +5600,22 @@
         <v>58</v>
       </c>
       <c r="K66" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="L66" t="s">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="M66" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="N66" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="O66" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="P66" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67">
@@ -5752,10 +5632,10 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="F67" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="G67" t="s">
         <v>58</v>
@@ -5770,16 +5650,16 @@
         <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="L67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M67" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="N67" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
@@ -5796,13 +5676,13 @@
         <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="F68" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="G68" t="s">
-        <v>346</v>
+        <v>58</v>
       </c>
       <c r="H68" t="s">
         <v>56</v>
@@ -5814,28 +5694,22 @@
         <v>58</v>
       </c>
       <c r="K68" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="L68" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="M68" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="N68" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O68" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="P68" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>495</v>
-      </c>
-      <c r="R68" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
@@ -5852,13 +5726,13 @@
         <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="F69" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="G69" t="s">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="H69" t="s">
         <v>56</v>
@@ -5870,46 +5744,16 @@
         <v>58</v>
       </c>
       <c r="K69" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="L69" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="M69" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="N69" t="s">
-        <v>200</v>
-      </c>
-      <c r="O69" t="s">
-        <v>500</v>
-      </c>
-      <c r="P69" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>501</v>
-      </c>
-      <c r="R69" t="s">
-        <v>321</v>
-      </c>
-      <c r="S69" t="s">
-        <v>502</v>
-      </c>
-      <c r="T69" t="s">
-        <v>64</v>
-      </c>
-      <c r="U69" t="s">
-        <v>503</v>
-      </c>
-      <c r="V69" t="s">
-        <v>60</v>
-      </c>
-      <c r="W69" t="s">
-        <v>504</v>
-      </c>
-      <c r="X69" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70">
@@ -5926,10 +5770,10 @@
         <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="F70" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="G70" t="s">
         <v>58</v>
@@ -5944,22 +5788,16 @@
         <v>58</v>
       </c>
       <c r="K70" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="L70" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="M70" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="N70" t="s">
-        <v>509</v>
-      </c>
-      <c r="O70" t="s">
-        <v>510</v>
-      </c>
-      <c r="P70" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71">
@@ -5976,13 +5814,13 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="F71" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="G71" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s">
         <v>56</v>
@@ -5994,16 +5832,100 @@
         <v>58</v>
       </c>
       <c r="K71" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="L71" t="s">
+        <v>223</v>
+      </c>
+      <c r="M71" t="s">
+        <v>489</v>
+      </c>
+      <c r="N71" t="s">
+        <v>68</v>
+      </c>
+      <c r="O71" t="s">
+        <v>490</v>
+      </c>
+      <c r="P71" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>491</v>
+      </c>
+      <c r="R71" t="s">
+        <v>125</v>
+      </c>
+      <c r="S71" t="s">
+        <v>492</v>
+      </c>
+      <c r="T71" t="s">
+        <v>68</v>
+      </c>
+      <c r="U71" t="s">
+        <v>493</v>
+      </c>
+      <c r="V71" t="s">
+        <v>94</v>
+      </c>
+      <c r="W71" t="s">
+        <v>494</v>
+      </c>
+      <c r="X71" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB71" t="s">
         <v>100</v>
       </c>
-      <c r="M71" t="s">
-        <v>514</v>
-      </c>
-      <c r="N71" t="s">
-        <v>515</v>
+      <c r="AC71" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>499</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>500</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>501</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>502</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>324</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>503</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="72">
@@ -6020,13 +5942,13 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="F72" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s">
         <v>56</v>
@@ -6038,22 +5960,46 @@
         <v>58</v>
       </c>
       <c r="K72" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L72" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M72" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="N72" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="O72" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="P72" t="s">
-        <v>146</v>
+        <v>223</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>509</v>
+      </c>
+      <c r="R72" t="s">
+        <v>223</v>
+      </c>
+      <c r="S72" t="s">
+        <v>510</v>
+      </c>
+      <c r="T72" t="s">
+        <v>94</v>
+      </c>
+      <c r="U72" t="s">
+        <v>511</v>
+      </c>
+      <c r="V72" t="s">
+        <v>84</v>
+      </c>
+      <c r="W72" t="s">
+        <v>512</v>
+      </c>
+      <c r="X72" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="73">
@@ -6070,13 +6016,13 @@
         <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F73" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G73" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s">
         <v>56</v>
@@ -6088,16 +6034,28 @@
         <v>58</v>
       </c>
       <c r="K73" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L73" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="M73" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="N73" t="s">
-        <v>123</v>
+        <v>84</v>
+      </c>
+      <c r="O73" t="s">
+        <v>517</v>
+      </c>
+      <c r="P73" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>518</v>
+      </c>
+      <c r="R73" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="74">
@@ -6114,10 +6072,10 @@
         <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F74" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G74" t="s">
         <v>58</v>
@@ -6132,22 +6090,28 @@
         <v>58</v>
       </c>
       <c r="K74" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L74" t="s">
-        <v>60</v>
+        <v>376</v>
       </c>
       <c r="M74" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N74" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="O74" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="P74" t="s">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>524</v>
+      </c>
+      <c r="R74" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="75">
@@ -6164,34 +6128,46 @@
         <v>52</v>
       </c>
       <c r="E75" t="s">
+        <v>525</v>
+      </c>
+      <c r="F75" t="s">
+        <v>526</v>
+      </c>
+      <c r="G75" t="s">
+        <v>333</v>
+      </c>
+      <c r="H75" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" t="s">
+        <v>57</v>
+      </c>
+      <c r="J75" t="s">
+        <v>58</v>
+      </c>
+      <c r="K75" t="s">
+        <v>527</v>
+      </c>
+      <c r="L75" t="s">
+        <v>84</v>
+      </c>
+      <c r="M75" t="s">
+        <v>528</v>
+      </c>
+      <c r="N75" t="s">
+        <v>132</v>
+      </c>
+      <c r="O75" t="s">
+        <v>529</v>
+      </c>
+      <c r="P75" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q75" t="s">
         <v>530</v>
       </c>
-      <c r="F75" t="s">
-        <v>531</v>
-      </c>
-      <c r="G75" t="s">
-        <v>303</v>
-      </c>
-      <c r="H75" t="s">
-        <v>56</v>
-      </c>
-      <c r="I75" t="s">
-        <v>57</v>
-      </c>
-      <c r="J75" t="s">
-        <v>58</v>
-      </c>
-      <c r="K75" t="s">
-        <v>532</v>
-      </c>
-      <c r="L75" t="s">
-        <v>533</v>
-      </c>
-      <c r="M75" t="s">
-        <v>534</v>
-      </c>
-      <c r="N75" t="s">
-        <v>146</v>
+      <c r="R75" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="76">
@@ -6208,10 +6184,10 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G76" t="s">
         <v>58</v>
@@ -6226,16 +6202,16 @@
         <v>58</v>
       </c>
       <c r="K76" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M76" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="N76" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77">
@@ -6252,13 +6228,13 @@
         <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F77" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H77" t="s">
         <v>56</v>
@@ -6270,45 +6246,15 @@
         <v>58</v>
       </c>
       <c r="K77" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L77" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="M77" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N77" t="s">
-        <v>100</v>
-      </c>
-      <c r="O77" t="s">
-        <v>543</v>
-      </c>
-      <c r="P77" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>544</v>
-      </c>
-      <c r="R77" t="s">
-        <v>96</v>
-      </c>
-      <c r="S77" t="s">
-        <v>545</v>
-      </c>
-      <c r="T77" t="s">
-        <v>96</v>
-      </c>
-      <c r="U77" t="s">
-        <v>546</v>
-      </c>
-      <c r="V77" t="s">
-        <v>85</v>
-      </c>
-      <c r="W77" t="s">
-        <v>547</v>
-      </c>
-      <c r="X77" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6326,13 +6272,13 @@
         <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F78" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="G78" t="s">
-        <v>346</v>
+        <v>52</v>
       </c>
       <c r="H78" t="s">
         <v>56</v>
@@ -6344,28 +6290,16 @@
         <v>58</v>
       </c>
       <c r="K78" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="L78" t="s">
-        <v>328</v>
+        <v>68</v>
       </c>
       <c r="M78" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="N78" t="s">
-        <v>64</v>
-      </c>
-      <c r="O78" t="s">
-        <v>552</v>
-      </c>
-      <c r="P78" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>553</v>
-      </c>
-      <c r="R78" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79">
@@ -6382,13 +6316,13 @@
         <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="F79" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="G79" t="s">
-        <v>346</v>
+        <v>58</v>
       </c>
       <c r="H79" t="s">
         <v>56</v>
@@ -6400,28 +6334,34 @@
         <v>58</v>
       </c>
       <c r="K79" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="L79" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="M79" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="N79" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="O79" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="P79" t="s">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="Q79" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="R79" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="S79" t="s">
+        <v>549</v>
+      </c>
+      <c r="T79" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80">
@@ -6438,10 +6378,10 @@
         <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F80" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G80" t="s">
         <v>58</v>
@@ -6456,16 +6396,46 @@
         <v>58</v>
       </c>
       <c r="K80" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="L80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M80" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="N80" t="s">
-        <v>64</v>
+        <v>132</v>
+      </c>
+      <c r="O80" t="s">
+        <v>554</v>
+      </c>
+      <c r="P80" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>555</v>
+      </c>
+      <c r="R80" t="s">
+        <v>125</v>
+      </c>
+      <c r="S80" t="s">
+        <v>556</v>
+      </c>
+      <c r="T80" t="s">
+        <v>84</v>
+      </c>
+      <c r="U80" t="s">
+        <v>557</v>
+      </c>
+      <c r="V80" t="s">
+        <v>125</v>
+      </c>
+      <c r="W80" t="s">
+        <v>558</v>
+      </c>
+      <c r="X80" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="81">
@@ -6482,13 +6452,13 @@
         <v>52</v>
       </c>
       <c r="E81" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F81" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G81" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H81" t="s">
         <v>56</v>
@@ -6500,16 +6470,22 @@
         <v>58</v>
       </c>
       <c r="K81" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M81" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="N81" t="s">
-        <v>70</v>
+        <v>125</v>
+      </c>
+      <c r="O81" t="s">
+        <v>563</v>
+      </c>
+      <c r="P81" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="82">
@@ -6526,34 +6502,40 @@
         <v>52</v>
       </c>
       <c r="E82" t="s">
+        <v>564</v>
+      </c>
+      <c r="F82" t="s">
+        <v>565</v>
+      </c>
+      <c r="G82" t="s">
+        <v>566</v>
+      </c>
+      <c r="H82" t="s">
+        <v>56</v>
+      </c>
+      <c r="I82" t="s">
+        <v>57</v>
+      </c>
+      <c r="J82" t="s">
+        <v>58</v>
+      </c>
+      <c r="K82" t="s">
+        <v>567</v>
+      </c>
+      <c r="L82" t="s">
+        <v>68</v>
+      </c>
+      <c r="M82" t="s">
         <v>568</v>
       </c>
-      <c r="F82" t="s">
+      <c r="N82" t="s">
+        <v>118</v>
+      </c>
+      <c r="O82" t="s">
         <v>569</v>
       </c>
-      <c r="G82" t="s">
-        <v>52</v>
-      </c>
-      <c r="H82" t="s">
-        <v>56</v>
-      </c>
-      <c r="I82" t="s">
-        <v>57</v>
-      </c>
-      <c r="J82" t="s">
-        <v>58</v>
-      </c>
-      <c r="K82" t="s">
-        <v>570</v>
-      </c>
-      <c r="L82" t="s">
-        <v>83</v>
-      </c>
-      <c r="M82" t="s">
-        <v>571</v>
-      </c>
-      <c r="N82" t="s">
-        <v>60</v>
+      <c r="P82" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="83">
@@ -6570,40 +6552,58 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
+        <v>570</v>
+      </c>
+      <c r="F83" t="s">
+        <v>571</v>
+      </c>
+      <c r="G83" t="s">
+        <v>58</v>
+      </c>
+      <c r="H83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I83" t="s">
+        <v>57</v>
+      </c>
+      <c r="J83" t="s">
+        <v>58</v>
+      </c>
+      <c r="K83" t="s">
         <v>572</v>
       </c>
-      <c r="F83" t="s">
+      <c r="L83" t="s">
+        <v>62</v>
+      </c>
+      <c r="M83" t="s">
         <v>573</v>
       </c>
-      <c r="G83" t="s">
-        <v>58</v>
-      </c>
-      <c r="H83" t="s">
-        <v>56</v>
-      </c>
-      <c r="I83" t="s">
-        <v>57</v>
-      </c>
-      <c r="J83" t="s">
-        <v>58</v>
-      </c>
-      <c r="K83" t="s">
+      <c r="N83" t="s">
+        <v>125</v>
+      </c>
+      <c r="O83" t="s">
         <v>574</v>
       </c>
-      <c r="L83" t="s">
-        <v>60</v>
-      </c>
-      <c r="M83" t="s">
+      <c r="P83" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q83" t="s">
         <v>575</v>
       </c>
-      <c r="N83" t="s">
-        <v>123</v>
-      </c>
-      <c r="O83" t="s">
+      <c r="R83" t="s">
+        <v>72</v>
+      </c>
+      <c r="S83" t="s">
         <v>576</v>
       </c>
-      <c r="P83" t="s">
-        <v>123</v>
+      <c r="T83" t="s">
+        <v>118</v>
+      </c>
+      <c r="U83" t="s">
+        <v>577</v>
+      </c>
+      <c r="V83" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="84">
@@ -6620,13 +6620,13 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F84" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G84" t="s">
-        <v>579</v>
+        <v>305</v>
       </c>
       <c r="H84" t="s">
         <v>56</v>
@@ -6641,19 +6641,13 @@
         <v>580</v>
       </c>
       <c r="L84" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="M84" t="s">
         <v>581</v>
       </c>
       <c r="N84" t="s">
-        <v>85</v>
-      </c>
-      <c r="O84" t="s">
-        <v>582</v>
-      </c>
-      <c r="P84" t="s">
-        <v>146</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85">
@@ -6670,58 +6664,46 @@
         <v>52</v>
       </c>
       <c r="E85" t="s">
+        <v>582</v>
+      </c>
+      <c r="F85" t="s">
         <v>583</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
+        <v>52</v>
+      </c>
+      <c r="H85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I85" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" t="s">
+        <v>58</v>
+      </c>
+      <c r="K85" t="s">
         <v>584</v>
       </c>
-      <c r="G85" t="s">
-        <v>58</v>
-      </c>
-      <c r="H85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I85" t="s">
-        <v>57</v>
-      </c>
-      <c r="J85" t="s">
-        <v>58</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
+        <v>68</v>
+      </c>
+      <c r="M85" t="s">
         <v>585</v>
       </c>
-      <c r="L85" t="s">
-        <v>60</v>
-      </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
+        <v>164</v>
+      </c>
+      <c r="O85" t="s">
         <v>586</v>
       </c>
-      <c r="N85" t="s">
-        <v>146</v>
-      </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q85" t="s">
         <v>587</v>
       </c>
-      <c r="P85" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>588</v>
-      </c>
       <c r="R85" t="s">
-        <v>123</v>
-      </c>
-      <c r="S85" t="s">
-        <v>589</v>
-      </c>
-      <c r="T85" t="s">
-        <v>85</v>
-      </c>
-      <c r="U85" t="s">
-        <v>590</v>
-      </c>
-      <c r="V85" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86">
@@ -6738,34 +6720,34 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
+        <v>588</v>
+      </c>
+      <c r="F86" t="s">
+        <v>589</v>
+      </c>
+      <c r="G86" t="s">
+        <v>52</v>
+      </c>
+      <c r="H86" t="s">
+        <v>56</v>
+      </c>
+      <c r="I86" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" t="s">
+        <v>58</v>
+      </c>
+      <c r="K86" t="s">
+        <v>590</v>
+      </c>
+      <c r="L86" t="s">
+        <v>223</v>
+      </c>
+      <c r="M86" t="s">
         <v>591</v>
       </c>
-      <c r="F86" t="s">
-        <v>592</v>
-      </c>
-      <c r="G86" t="s">
-        <v>303</v>
-      </c>
-      <c r="H86" t="s">
-        <v>56</v>
-      </c>
-      <c r="I86" t="s">
-        <v>57</v>
-      </c>
-      <c r="J86" t="s">
-        <v>58</v>
-      </c>
-      <c r="K86" t="s">
-        <v>593</v>
-      </c>
-      <c r="L86" t="s">
-        <v>305</v>
-      </c>
-      <c r="M86" t="s">
-        <v>594</v>
-      </c>
       <c r="N86" t="s">
-        <v>305</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87">
@@ -6782,46 +6764,40 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
+        <v>592</v>
+      </c>
+      <c r="F87" t="s">
+        <v>593</v>
+      </c>
+      <c r="G87" t="s">
+        <v>594</v>
+      </c>
+      <c r="H87" t="s">
+        <v>56</v>
+      </c>
+      <c r="I87" t="s">
+        <v>57</v>
+      </c>
+      <c r="J87" t="s">
+        <v>58</v>
+      </c>
+      <c r="K87" t="s">
         <v>595</v>
       </c>
-      <c r="F87" t="s">
+      <c r="L87" t="s">
+        <v>84</v>
+      </c>
+      <c r="M87" t="s">
         <v>596</v>
       </c>
-      <c r="G87" t="s">
-        <v>52</v>
-      </c>
-      <c r="H87" t="s">
-        <v>56</v>
-      </c>
-      <c r="I87" t="s">
-        <v>57</v>
-      </c>
-      <c r="J87" t="s">
-        <v>58</v>
-      </c>
-      <c r="K87" t="s">
+      <c r="N87" t="s">
+        <v>324</v>
+      </c>
+      <c r="O87" t="s">
         <v>597</v>
       </c>
-      <c r="L87" t="s">
-        <v>83</v>
-      </c>
-      <c r="M87" t="s">
-        <v>598</v>
-      </c>
-      <c r="N87" t="s">
-        <v>153</v>
-      </c>
-      <c r="O87" t="s">
-        <v>599</v>
-      </c>
       <c r="P87" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>600</v>
-      </c>
-      <c r="R87" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88">
@@ -6838,34 +6814,34 @@
         <v>52</v>
       </c>
       <c r="E88" t="s">
+        <v>598</v>
+      </c>
+      <c r="F88" t="s">
+        <v>599</v>
+      </c>
+      <c r="G88" t="s">
+        <v>55</v>
+      </c>
+      <c r="H88" t="s">
+        <v>56</v>
+      </c>
+      <c r="I88" t="s">
+        <v>57</v>
+      </c>
+      <c r="J88" t="s">
+        <v>58</v>
+      </c>
+      <c r="K88" t="s">
+        <v>600</v>
+      </c>
+      <c r="L88" t="s">
+        <v>62</v>
+      </c>
+      <c r="M88" t="s">
         <v>601</v>
       </c>
-      <c r="F88" t="s">
-        <v>602</v>
-      </c>
-      <c r="G88" t="s">
-        <v>52</v>
-      </c>
-      <c r="H88" t="s">
-        <v>56</v>
-      </c>
-      <c r="I88" t="s">
-        <v>57</v>
-      </c>
-      <c r="J88" t="s">
-        <v>58</v>
-      </c>
-      <c r="K88" t="s">
-        <v>603</v>
-      </c>
-      <c r="L88" t="s">
-        <v>98</v>
-      </c>
-      <c r="M88" t="s">
-        <v>604</v>
-      </c>
       <c r="N88" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89">
@@ -6882,40 +6858,64 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
+        <v>602</v>
+      </c>
+      <c r="F89" t="s">
+        <v>603</v>
+      </c>
+      <c r="G89" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" t="s">
+        <v>56</v>
+      </c>
+      <c r="I89" t="s">
+        <v>57</v>
+      </c>
+      <c r="J89" t="s">
+        <v>58</v>
+      </c>
+      <c r="K89" t="s">
+        <v>604</v>
+      </c>
+      <c r="L89" t="s">
+        <v>125</v>
+      </c>
+      <c r="M89" t="s">
         <v>605</v>
       </c>
-      <c r="F89" t="s">
+      <c r="N89" t="s">
+        <v>225</v>
+      </c>
+      <c r="O89" t="s">
         <v>606</v>
       </c>
-      <c r="G89" t="s">
+      <c r="P89" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q89" t="s">
         <v>607</v>
       </c>
-      <c r="H89" t="s">
-        <v>56</v>
-      </c>
-      <c r="I89" t="s">
-        <v>57</v>
-      </c>
-      <c r="J89" t="s">
-        <v>58</v>
-      </c>
-      <c r="K89" t="s">
+      <c r="R89" t="s">
+        <v>68</v>
+      </c>
+      <c r="S89" t="s">
         <v>608</v>
       </c>
-      <c r="L89" t="s">
-        <v>204</v>
-      </c>
-      <c r="M89" t="s">
+      <c r="T89" t="s">
         <v>609</v>
       </c>
-      <c r="N89" t="s">
-        <v>64</v>
-      </c>
-      <c r="O89" t="s">
+      <c r="U89" t="s">
         <v>610</v>
       </c>
-      <c r="P89" t="s">
-        <v>64</v>
+      <c r="V89" t="s">
+        <v>223</v>
+      </c>
+      <c r="W89" t="s">
+        <v>611</v>
+      </c>
+      <c r="X89" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="90">
@@ -6932,13 +6932,13 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F90" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G90" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s">
         <v>56</v>
@@ -6950,16 +6950,34 @@
         <v>58</v>
       </c>
       <c r="K90" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L90" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M90" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N90" t="s">
-        <v>70</v>
+        <v>241</v>
+      </c>
+      <c r="O90" t="s">
+        <v>616</v>
+      </c>
+      <c r="P90" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>617</v>
+      </c>
+      <c r="R90" t="s">
+        <v>72</v>
+      </c>
+      <c r="S90" t="s">
+        <v>618</v>
+      </c>
+      <c r="T90" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="91">
@@ -6976,10 +6994,10 @@
         <v>52</v>
       </c>
       <c r="E91" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F91" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="G91" t="s">
         <v>52</v>
@@ -6994,51 +7012,45 @@
         <v>58</v>
       </c>
       <c r="K91" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="L91" t="s">
-        <v>123</v>
+        <v>430</v>
       </c>
       <c r="M91" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="N91" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="O91" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="P91" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Q91" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="R91" t="s">
-        <v>96</v>
+        <v>417</v>
       </c>
       <c r="S91" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="T91" t="s">
-        <v>83</v>
+        <v>324</v>
       </c>
       <c r="U91" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="V91" t="s">
-        <v>623</v>
-      </c>
-      <c r="W91" t="s">
-        <v>624</v>
-      </c>
-      <c r="X91" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B92" t="s">
         <v>50</v>
@@ -7050,13 +7062,13 @@
         <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F92" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G92" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H92" t="s">
         <v>56</v>
@@ -7068,34 +7080,22 @@
         <v>58</v>
       </c>
       <c r="K92" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L92" t="s">
-        <v>100</v>
+        <v>324</v>
       </c>
       <c r="M92" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N92" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="O92" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="P92" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>630</v>
-      </c>
-      <c r="R92" t="s">
-        <v>104</v>
-      </c>
-      <c r="S92" t="s">
-        <v>631</v>
-      </c>
-      <c r="T92" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
